--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_275.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_275.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32825-d225912-Reviews-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>207</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Extended-Stay-America-Orange-County-Katella-Ave.h805755.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_275.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_275.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1079">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Lorena D</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Spend a couple of nights here and I must say the staff here are so nice. They really know how to go out of their way to make your stay comfortable. Most definitely going to come back for future events.More</t>
   </si>
   <si>
+    <t>Miguel T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r580504548-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>I travel a lot and I usually stay in hotels like this but I usually don’t get the treatment I got here. The manager was so nice and helpful on whats in the area and just over all. Being the person I am,I’m always running late made the small breakfast booth came in handy. I couldn’t have ask for a better stay keep up the good work Maggie.More</t>
   </si>
   <si>
+    <t>Drewp41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r576515768-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Stayed for a weekend to watch baseball.  Not a place I’d take the wife and kids. It’s safe but room was not entirely great. Needs some upgrades.  Good for what I was there for with friends. Would stay again for this type of trip.More</t>
   </si>
   <si>
+    <t>Karl G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r565367534-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>No hair dryers in the rooms.  You can request one, but when I did they were all gone. Room generally beat up. Provide dishes if you ask, but no soap to wash them.   BEst feature is walking distance to Honda center.More</t>
   </si>
   <si>
+    <t>prerakdhawan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r562910578-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>Enjoyed this place. Strongly recommend to visit with your family.Loved the food and hospitality of the staff. There were indoor and outdoor activities as well that the resort staff organized for us..More</t>
   </si>
   <si>
+    <t>eliegator921</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r557760590-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>We were moved to this location from our original reservation so that was a bummer to begin with. The room was alright but everything seemed old and not so fresh. We borrowed some things to cook and it wasn't really clean. The carpets were stinky. The towels we got smelled funny. Nothing was gross but it for sure wasn't the cleanest place I've experienced. The room are not very well isolated we could hear our neighbors all around. More</t>
   </si>
   <si>
+    <t>donnagA9516GD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r552502898-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Staff was rude and not pleasant to talk to. Room was clean and everything worked. There was a slight sent of urine in the bathroom and carpet. Stains on carpet was also kind of weird. I kept my shoes on. Parking lot was well lit and lots of spots to park.More</t>
   </si>
   <si>
+    <t>550bashkimb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r541977416-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>It was a good, long visit, and I have nothing but good things to say, and will have good memories. I had to relocate and it was the best way I was able to do that, and it was incredibly easy to set up.More</t>
   </si>
   <si>
+    <t>Antoinette W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r537762209-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -408,6 +435,9 @@
     <t>My problem with extended stay is the fact that they do not clean their room there is soap scum all over the shower and hair and they're soap scum all over the kitchen sink the carpet is dirty everywhere in that place is disgusting dirty and sticky and no TV station to watchMore</t>
   </si>
   <si>
+    <t>Harold T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r533158177-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -435,6 +465,9 @@
     <t>This has been one of the worst places I have stayed this far.  No bellhop, minimal breakfast option, staff that does not look like they want to be there, stains on the shower curtain, no real closet, patch work all over the room, and construction during our stay there.  If there no other place to stay (which I doubt) go somewhere else. We thought this place would be decent from other extended stays and the price but were we wrong. More</t>
   </si>
   <si>
+    <t>Christian D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r531565562-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -459,6 +492,9 @@
     <t>Today was very stressful I was evacuated from my home due to the fire. My son booked a hotel for me I was worried since its been awhile since I stayed at a hotel and I was more worried because of Spanky my dog. Well when we arrived a young lady greet us with a smile. The check in process went smooth the young lady made me feel welcome She was very sympathetic to my situation and let me vent to her about my frustrated day. When I went back to desk to Thank her she had left for the day and to my surprise I learn she was the Manager of hotel. Thank you so much Maggie for listening to this old man and making me feel better.More</t>
   </si>
   <si>
+    <t>Kari A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r529256680-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -486,6 +522,9 @@
     <t>We stayed here for one night, to attend an Anaheim Angels game. We were within walking distance of the stadium as well as the train station (however, you had to walk all the way around to get to the front of the hotel). There was plenty of parking if needed. There is a large homeless contingent behind the hotel (on the Santa Ana Trail) however this did not affect our stay in any way.The lady who checked us in was very friendly, and remembered us the next day (asked us how the game was, etc). They have a few snacks (muffins and granola bars) and coffee in the lobby in the morning. The room itself is nothing special. Has a basic kitchen, and a basic bathroom with the necessities. The beds were firm. There was an air conditioner but it didn't work amazing. There was also construction at the end of the hallway - they didn't start super early, but it was going around 8:30am.Starbucks and movie theatre/restaurants very close by.More</t>
   </si>
   <si>
+    <t>Munizmay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r516309440-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -513,6 +552,9 @@
     <t>This place is the most horrible place i had ever stayed at, It's filthy dirty and it smells. There was hair in the bathtub and i told the from desk to please sent someone to clean it and they said they will. That day i went out the whole day got back at night time to find the hairs still there.  Carpets are full of stains, sheets on the bed don't smell clean at all. Stains on the counters and nigh stands. Probably would had a better experience at a cheap Motel. Please don't wast your money on this place. I gave it a 1 just because it would let me give it something lower other than that even a 1 is too high for this place.More</t>
   </si>
   <si>
+    <t>misterkrc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r512992195-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -537,6 +579,9 @@
     <t>the staff and Management are very helpful at extended stay america and the management team is very thoughtful and nice. Maggie, Jessica, Jr, Tierra, Kathy and Kat, and Jose, Ivan and Liz who work in the late evenings is also excellent and provides great customer services. Delfino for maintenance is very nice and also very helpful and thoughtful,More</t>
   </si>
   <si>
+    <t>Gordon W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r532509402-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -559,6 +604,9 @@
   </si>
   <si>
     <t>Condition of hotel's exterior left a lot to be desired.  Missing sections of stucco.  Cigarette butts on the ground at each of the entryways/exits.  Trash on the floor of the lobby.  Funky smelling room.  Noisy air conditioning.  Weird location (accessible only from a parking lot for a movie theater mega complex).  However, it was a mere ten minute drive to where we needed to be.More</t>
+  </si>
+  <si>
+    <t>Bridget L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r507932877-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
@@ -600,6 +648,9 @@
 P.S. Reading other reviews I see...My sister and I try to follow our spirit(s) because that is more important than anything physical. The moment we stepped into this hotel (at this specific location) we knew we were in the right place. Our spirit felt a sense of safety the moment we met Maggie. Soon after, we became acquainted with Kat, Jess, Zarur ("Jr"), Kathy, Tiarah and the rest of the staff. I feel very blessed and fortunate to have been placed here. I feel like I have a sense of family and it is so comforting. It's probably because the staff is a family all their own. They are a caring family that invite their guests in to share in the love!!!Maggie is a phenomenal manager. She keeps this hotel up (neat, clean and organized) with everything she has to give. Her hardwork and genuine care for her hotel and its guests is remarkable. Kat (Team Lead), despite her young age, she really knows her stuff! On top of that, I've noticed her undeniable bond with many of the guests; both long term and short stays. Last, but definitely not least, the front desk staff; Jess, Zarur, Kathy and Tiarah are the best in the business!!! Hands down!!! I've never met any front desk agents, at any hotel I've been to (state to state), that are as AMAZING as these beautiful people here! Sincerely,Adrienne &amp; Bridget Liggins P.S. Reading other reviews I see that so many people waste time complaining about little things in life. If you do that, you miss out on the beauty of all the good there is to experience. Good people, being in good company and hardwork &amp; good ethics to boot!!This hotel is Amazing; don't let snooty, Debbie Downers tell you otherwise!More</t>
   </si>
   <si>
+    <t>SmrtBloned</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r507219226-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -627,6 +678,9 @@
     <t>I tried - on four separate occasions - to get them to fix the bathroom tub's faucet that keeps dripping. It's non-stop and is a huge waste of water. I called the front desk three times and on my fourth time I went to the front desk and a ticket was written. I then asked yesterday about it being fixed and was told they need to order a part.This is ridiculous. It shouldn't take four requests to get a faucet fixed. I stayed two weeks in this location. Two weeks and they couldn't fix a faucet.The room is fine on the whole and the location is good. More</t>
   </si>
   <si>
+    <t>Amanda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r504914725-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -651,6 +705,9 @@
     <t>The front desk clerk was belligerent and and rude. She checked us in to a smoking room (yes they still do exist) and we called down immediately and asked for a room change. She said that she asked me if I would like a smoking room. I explained that she didn't ask me, not would I have ever accept a smoking room, as my husband is very allergic. She was awful. She said "I did tell you" and I said "No, you didn't" and she said I told you. I did tell you, but in a very mean and rude way. My husband was right there...She DID NOT tell me a smoking room. Never in a million years would I have agreed to a smoking room. I have been in the customer service industry for 35 years, and 28 of those were in the hotel and hospitality industry. I would have NEVER talked to someone like that. I asked to speak to the manager and she said she was the supervisor and the only one on duty. The room was an ashtray. She eventually moved us to a first floor level that overlooked the homeless tent city that is less than 500 feet away. All around dissatisfied and an awful experience. I only booked it because it was the closest available hotel to our venue. I didn't read the reviews because I've stayed in many Extended Stay America hotels and...The front desk clerk was belligerent and and rude. She checked us in to a smoking room (yes they still do exist) and we called down immediately and asked for a room change. She said that she asked me if I would like a smoking room. I explained that she didn't ask me, not would I have ever accept a smoking room, as my husband is very allergic. She was awful. She said "I did tell you" and I said "No, you didn't" and she said I told you. I did tell you, but in a very mean and rude way. My husband was right there...She DID NOT tell me a smoking room. Never in a million years would I have agreed to a smoking room. I have been in the customer service industry for 35 years, and 28 of those were in the hotel and hospitality industry. I would have NEVER talked to someone like that. I asked to speak to the manager and she said she was the supervisor and the only one on duty. The room was an ashtray. She eventually moved us to a first floor level that overlooked the homeless tent city that is less than 500 feet away. All around dissatisfied and an awful experience. I only booked it because it was the closest available hotel to our venue. I didn't read the reviews because I've stayed in many Extended Stay America hotels and they've always been quite nice. Never again. Lost a customer for life...not only at this hotel but anything with your name on it.  I was so aggravated with her rudeness and they way she talked down to us that this that I'm still uncomfortable with the whole situation. Never ever again.More</t>
   </si>
   <si>
+    <t>Scarub</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r503907654-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -675,6 +732,9 @@
     <t>The hotel is conveniently located near major attractions. The amenities cater to long stay patrons with their kitchen within each room. My room was clean and acceptable except for the AC unit which worked but leaked a bit of water.More</t>
   </si>
   <si>
+    <t>shriramc2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r502274138-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -699,6 +759,9 @@
     <t>I could get better hotel with more amenities, very good breakfast, hush cleanliness standards at much cheaper rate in less than 0.2 miles vicinity. The hotel charges $140 whereas the other hotel could provide many times better facilities at $114 per dayMore</t>
   </si>
   <si>
+    <t>789lsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r500582754-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -723,6 +786,9 @@
     <t>My family and I just wanted to get away for a few days especially since the weekend we stayed there just so happened to be really hot so having AC on full blast was like heaven to us. It was also great for our 5 month old son, our household can get pretty loud so it was great for him to actually sleep through the night with some peace and quietMore</t>
   </si>
   <si>
+    <t>wwT6468WU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r497374323-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -750,6 +816,9 @@
     <t>Never had a hotel experience like this and wasn't even talked to about resolving issues. I tried to talk to the lady's that were rude but they were the ones in charge at that time so I couldn't do anything about it. They must of been having a bad week because it wasn't just one day. They were arguing and very unprofessional.More</t>
   </si>
   <si>
+    <t>whopke4826</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r497188367-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -774,6 +843,9 @@
     <t>Needed a place to stay and it was awesome. Quick easy no issues very nice price, pet friendly, helpful. Had a great time highly recommend to anyone that is in need of a relaxing evening away or simple roof over your head.More</t>
   </si>
   <si>
+    <t>tawnirn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r497167718-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -789,6 +861,9 @@
     <t>Was a horrible stay. Homeless camp next door. Hard bed. Elevator smelled like pee. It felt like we had moved into Skid Row instead of a Disney vacation. We've stayed at other Entended Stays but this was a nightmare. It only lacked bugs to top off the experience.More</t>
   </si>
   <si>
+    <t>758rener</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r495494847-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -813,6 +888,9 @@
     <t>The room could've been a little bit cleaner the staff was really nice I didn't like the fact that there was no free breakfast and location wasn't bad but we had a view of homeless people outside of our window and it was a little bit of a turn off. I do like the hotel for the fact that I was affordable and easy to check inMore</t>
   </si>
   <si>
+    <t>Joseph S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r495244646-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -837,6 +915,9 @@
     <t>Be prepared to have no dishes in the kitchenette. You have to ask for them as needed. For me big inconvenience and when delivered they were dusty and dirty. There was no phone in the room, no bathroom trash, furniture is really old, scratched and dated. Not worth the amount of money paid for the room. I would definitely not stay here again. More</t>
   </si>
   <si>
+    <t>christinaaY8230ND</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r495037603-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -861,6 +942,9 @@
     <t>The most disgusting hotel ever!!!! Everything was soiled. The lobby and the room smelled horrible. Booked an 11 night stay and left after the first night. They are falsely advertising their hotels.Their pictures are extremely deceptive.More</t>
   </si>
   <si>
+    <t>tiffanyd737</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r493189995-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -885,6 +969,9 @@
     <t>For the money I paid I expected more.  It was not home away from home.  I could have stayed at the Holiday Inn or any other hotel for that matter.  I can make things work but when the room is dusty and dirty we have a problem.  Maybe ask to see the room first.More</t>
   </si>
   <si>
+    <t>A9465QSmattg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r493003107-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -900,6 +987,9 @@
     <t>This place was far from being clean and is surrounded by a homeless camp. The rooms have badly stained carpets and the bathroom faucet leaked. The staff was nice but the stay was worrisome. I would've checked out if I wasn't just staying there for 8 hours. More</t>
   </si>
   <si>
+    <t>A3789WFsarab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r491016869-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -924,6 +1014,9 @@
     <t>This place was dirty and there is a large homeless population nearby. There was also no ice make which was disappointing. The location and the Starbucks in the parking lot were the best parts. Staff was friendly as well!More</t>
   </si>
   <si>
+    <t>shickajackson19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r485044855-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -951,6 +1044,9 @@
     <t>The recommendation for this hotel is highly recommend. Great customer service , very quiet environment, &amp; friendly guests. My experience with the assistant manager Kay Allen was a excellent experience she showed a sense of urgency to walk me to my room because I didn't know my way around the hotel . The management is a great team as well they provide breakfast &amp; room service once a week. I would recommend this hotel to outsiders &amp; also my family . Thank you .More</t>
   </si>
   <si>
+    <t>juniemoontx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r482227577-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -975,6 +1071,9 @@
     <t>Sheets were stained, furniture old and scratched up, torn window screen, breaker box inside room could not be latched closed, it just hung open, black mark on fabric headboard. Renovations going on just outside of our room.  Extension cords daisy chained and taped down the hall.  Changed our minds and did not stay at the hotel, we checked out.More</t>
   </si>
   <si>
+    <t>martyklinkenberg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r480660418-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1002,6 +1101,9 @@
     <t>The room was adequate and very convenient to the Honda Center and Angels Stadium. (About a 7-minute walk to the arena, maybe 15 to the baseball park.) There;s nothing fancy here, and the price reflects that. It is also very close to a fine assortment of restaurants, less than 5 minutes away. You make your own bed here; they only have maid service once a week. There is a very very light continental breakfast that could be beefed up just a bit. If you are coming into town for a hockey or baseball game and aren't fussy, it is more than adequate. If you like amenities, maybe not. Now for the bad thing: There was a rather large fire on my final night there, Staff did a good job evacuating it, and everyone was safe. Still, a fire is a fire. Not their fault, of course, but a bit scary. They did the right thing by me, calling me two days later and refunding the room for that night. Fair enough.More</t>
   </si>
   <si>
+    <t>AMR4FUN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r466369903-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1029,6 +1131,9 @@
     <t>This was better than expected. Rooms are big and nice. Staff is very helpful and there are lots of good places to eat close by. There is not an excercise room but a walk along the river in the morning is nice.More</t>
   </si>
   <si>
+    <t>QDbronx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r463357167-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1053,6 +1158,9 @@
     <t>Loved my stay this past weekend! Great clean comfy rooms , helpful house keeping. Also very welcoming and great customer service from Katarina, highly recommend this place ! I'll be back. They really made me feel at home. More</t>
   </si>
   <si>
+    <t>Jorden2004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r463342708-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1071,6 +1179,9 @@
     <t>I visited this location for work I was there for a week and my stay was great I was greed by the front desk with a big smile and every time I needed something they were always ready to help my room was always clean if I ever go back to California I would like to stay at this locationMore</t>
   </si>
   <si>
+    <t>Darlene M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r448380795-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1095,6 +1206,9 @@
     <t>This place is thee worst motel I have ever stayed at. There were live and dead silverfish between sheets. They only are there because of  filth. The chairs to desk and table have white splashes of gunk smeared all over them. The carpets are super filthy with globs of old gum stuck in it. The ironing board is a filthy old yellowed color. They have 4 plastic hangers from dollar store to hang clothes in a closet that had a ratty brown curtain covering the closet. They do not clean your room or bring fresh towels the whole time you are here. The shower floor is slippery with gunk. Super bad place to stay. I'm ashamed of trip advisor for even putting it on their website especially since they advertise that they make sure you do end up in a rat hole like this. Never will use trip advisor again or stay at an extended stay motel. They had to pay a lot of money to get this place posted I'm sure! Yuk yuk yuk!!! Shame on you trip advisor!!!More</t>
   </si>
   <si>
+    <t>Imokiguess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r448351624-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1140,6 +1254,9 @@
     <t>Maggie, Kat, Jr and Kathy all amazing. They provide the best of the best services for your stay. I have been here for business for 1 year and they always make me feel like I am welcomed and at home. IN the morning it is so nice to go to the lobby and be greeted by Kat and Maggies great smile and when you need something, anything at all everybody from Kat to Maggie to Jr to Kathy will go all out to try and accommodate your wishes.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r431512993-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1167,6 +1284,9 @@
     <t>Very unhappy staff as they seemed to be miserable. The room was not thoroughly cleaned at all. Mold in bathroom sink and tub. No water pressure and the floor was filthy. I could literally hear the conversation of the people in the next room. I mean word for word. Horrible!!! I booked to stay here again in 3 weeks but we're looking elsewhere as this was not a great experience at all.More</t>
   </si>
   <si>
+    <t>umartjoh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r425788906-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1194,6 +1314,9 @@
     <t>The people here are just wonderful. Very responsive to our concerns and friendly as well. They should all receive raises. The room is clean and well equipped. We have had no problems at all with noise.More</t>
   </si>
   <si>
+    <t>DaveHunt1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r422973566-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1221,6 +1344,9 @@
     <t>I've been staying  here for over a year and seen the place improve. I am very pleased with  the  professionalism of the staff and the way they have made it a priority to keep the building clean and safe. If I've ever had an issue,  the maintenance man is always on top of fixing things in a timely manner.  The front desk staff Kat, Michelle, Nadia, and Tierra have all been pleasant and and I appreciate their kindness.More</t>
   </si>
   <si>
+    <t>r_car19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r403046037-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1248,6 +1374,9 @@
     <t>Called the evening prior to let them know we were arriving late. When we got to Anaheim, we had trouble finding the parking entrance. Called the hotel 2x &amp; no answer. Called the 800# &amp; was put on hold 2x. Finally figured how to get there. Went in to check-in, no one available. Called out for about 20mins. A guy came out of back door to check us in. Said phone wasn't working (hmmm...hotel without a working phone). After he checked us in, the same phone rang. Went to our room &amp; called the 800# again to complain to the manager, but the gal said she'd take my complaint down &amp; send it to the mgr. Should get a call within 48hrs. When we checked out the next morning, tried to talk to the front desk person but she was very unfriendly, didn't smile &amp; wouldn't give us a chance to talk to her. Took a card that showed the General Mgr's name: Michelle Altamirano.It's 8/8/16 &amp; still no phone call from the manager.More</t>
   </si>
   <si>
+    <t>jeff b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r401402575-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1275,6 +1404,9 @@
     <t>Wife and I stayed here as it was close to her reunion. We noticed trash in the hallways and in the stairwell. The next day the same trash was still there. I asked the front desk where the ice machine was, with a snarky attitude she said we don't have one. For an  inexpensive room with a kitchen the place is okay. Some clean up and better attitudes would make it nicer. Now the guy at the front desk when we checked in was very friendly. The attitude was only from the woman at the front desk.More</t>
   </si>
   <si>
+    <t>rfignw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r390749322-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1299,6 +1431,9 @@
     <t>Started out with A phone call as we are heading to the airport to come here. The lady ask if we really needed a double room because all they had was a king. My wife and I with a teenager were not going to fit in a king bed. She said she would have to call Expedia. So we got on the plane not knowing what was going to happen. Arrived and had to wait as nobody was at the front desk. We did get a double room. Place is so dirty. Desk staff is not very friendly or efficient. No name badges on some employees. If you are choosing a place with breakfast don't bother with this one. Breakfast consists of instant oatmeal, granola bars, sometimes packaged muffins, coffee. Sometimes there are oranges. Carpets are dirty. Kitchen has empty cabinets. You have to ask for any dishes or cups, utensils etc. Our dresser has a broken drawer. No daily maid service, you pay extra for that. More</t>
   </si>
   <si>
+    <t>ljwflys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r372459647-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1326,6 +1461,9 @@
     <t>Last minute so not much available and only for one night so how bad could it be?  Pretty bad.  Lobby floor was dirty, smelled bad, trash on carts sitting around.  When we got to our room someone had stuffed a wad of toilet paper in the door to keep it open.  No one was in the room but it was creepy.  Bedspread is worn, torn and not very clean looking.  Shower wasn't cleaned very well.  They did allow our dog but honestly she is probably cleaner then most of the people that stay there.  We knew we were taking a chance, it's a chance I will never take again.  $90 a night?!?!?  Yuck.More</t>
   </si>
   <si>
+    <t>Missacl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r366197949-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1353,6 +1491,9 @@
     <t>This is a run down hotel that is used as temporary housing, corporate housing &amp; travelers. Positives - The location is great if you want to walk to the Angels /Ducks sports venues.  It is also walking distance to lots of bars, restaurants &amp; a very nice movie theater. Disney is a 10 min car trip away.Negatives - The other folks that are residing here are a little sketchy. Lobby smells like pot (multiple days)- not sure if source was staff or guests.  Housekeeping never visits. Like the other reviews the room was very dirty- finger prints, dirty surfaces, makeup on mirror, and food grease on everything. Used the hand towels and free shampoo to wipe everything down- it was very grey when done.Also, check out goolge maps satellite view. You can she the bum tent encampment next to the property on the other side of the fence. The hotel staff advised us to park away from the fence because of this. Do not recommend for anyone with children or single women. Breakfast is coffee and granola bars- the fruit was only out a few days.  More</t>
   </si>
   <si>
+    <t>_tom2015shows</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r362275299-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1377,6 +1518,9 @@
     <t>Rundown and dirty and barely maintained.  Damaged bathroom, repair was sloppy and incomplete. Front office dirty, Elevators, beyond disgusting. Floors dirty. Even the dishes that were provided had visible dirt on them as the staff is giving them to you. Overall impression, there is no evidence of pride of working there by anyone I met, or anything I saw.More</t>
   </si>
   <si>
+    <t>767isabeli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r352454473-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1404,6 +1548,9 @@
     <t>Awesome room with kitchenette 67.00 half price  Free wifi free grab n go breakfast clean and spacious room about a 10 min drive to Disneyland Great valueDefinitely staying there again It's kind of hidden located in a shopping mall parking lot but the cinemas is there restaurants and Starbucks drive throughMore</t>
   </si>
   <si>
+    <t>Anna R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r352172044-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1423,6 +1570,9 @@
   </si>
   <si>
     <t>Upon entry, hotel felt OK. We arrived passed 11pm after a day at Disneyland. He was assisting another woman who was having issues finding her reservation. I waited at least 15 minutes and was not once acknowledged by the agent. Finally, I asked if I could check in real fast since daughter and husband are waiting in the car. Agent then something like, "well I wanted to help her first because she's been waiting here." I apologized and said I just wanted to check in to get to bed. He had already been assisting her a long time before I got there and continued to do so a while longer.  When we got in our room, it felt dirty/ didn't smell clean and floors were nasty and toilet had stains. Location is ok. It looks like it was located in a shopping area with a movie theatre. The way to get in is the theatre area. We got lost trying to get into it. In the morning, I asked if they had lotion and the women at the front desk began to walk away to Grab me someThen suddenly said, "actually, no we don't," which was a little weird. There was no shampoo, just a face bar in the room. Definitely wouldn't stay here again.More</t>
+  </si>
+  <si>
+    <t>Chirstma G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r350090438-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
@@ -1451,6 +1601,9 @@
 While I waited and discussed all possible solutions from above, we were interrupted 3 times by female prostitutes which were angry because could not get a room due to availability. How did I know they were prostitutes??? One ran out side and yelled at a man "you better pay me for what I just...We showed up at 1:30 am with a car full kids for our reservations only to find out they had given away our room and only had one smoking room left (for medical reasons we couldn't take a smoking room). According to the laundry lady (yes laundry lady, because they had no front desk coverage) (1.) there was nothing she could do because she didn't have access in the system to upgrade my room, (2) the manager was not available because he only comes in when the cops are called and so he would be back Monday (three days later), (3) they were overbooked because the bar next door was busy (4) if I wanted our money back, I would need to come in-person on Monday, (5) no other Extended Stay America's had availability for the night because technically we were checking in on the next day and would get the room at 3pm?!? (6) and she said she was texting her manager but that he said there was nothing he could do. Again, this was all according to the laundry lady working the front desk. While I waited and discussed all possible solutions from above, we were interrupted 3 times by female prostitutes which were angry because could not get a room due to availability. How did I know they were prostitutes??? One ran out side and yelled at a man "you better pay me for what I just gave you!", and another one asked my husband (who was waiting in the car with the kids) if he wanted a "happy ending"!!! So yea. I have nothing against prostitutes... just don't want my small kids around them. No we did not stay there, and yes I got a full refund... but only after going in countless circles with the rude and unprofessional general manager Joseph Tsai. Will we ever consider staying at an Extended Stay America in the future... NOPE.More</t>
   </si>
   <si>
+    <t>lisa h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r323780313-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1466,6 +1619,9 @@
     <t>I had booked this hotel as we were attending a concert at the Honda Centre. Great location we walked to the venue. Good location with restaurants and parking right there by the hotel.After reading the reviews I was expecting the worst. Our room was clean and comfortable. The checking process was quick and easy, the receptionist really friendly. I would stay here again.</t>
   </si>
   <si>
+    <t>CPrinke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r319087829-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1484,6 +1640,9 @@
     <t>While the room was clean this property was not in good shape.  It was run down and the service was poor.  I waited 15 -20 minutes to check in while the one person who was working took care of other unhappy customers.  One lady left because her room smelled so bad she could not stay in it.  While I did not expect a fancy room for $100 I did expect something better than a room that makes my old Army room look good.  The windows were dirty.  There was no remote for the TV.  There was nearly no toilet paper left.  In general this was not a good experience and I will not be back.More</t>
   </si>
   <si>
+    <t>Tiffany E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r316758386-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1502,6 +1661,9 @@
     <t>We checked in looked ok, we went up to the room and it just looked dirty, the hall way to the room hasn't been vacuumed in months, the floor stunk like smoke so bad, we had a non smoking room. I went down to kitchen stuff since the room had none in it, while waiting a lady was leaving due to the room being dirty, I thought great so I text my hubby to check our room he days, tub has hair in it, bath room is gross..Oh lovely I tell them they have it cleaned the next day for free.. The microwave, freezer, fridge hadn't been wiped out in who knows how long. The dishes I took up all dirty, the room had a gross dirty smell, the Windows were open in the room when we got in it..the water in tub didn't stop running for the whole 7 days, I opened the drawer by the bed it had a plastic cup in it, there was a penny on floor by chair so obviously the room hasn't been vacuumed, just a dirty place!!! I filled out a survey they offered a free night another time I wouldn't give the free room to a bum, gross place...then we check out on Mon then tues my card is charged $250.00 because they said we smoked in it..I have never smoked EVER, SO I had to call and waiting to hear back...funny...We checked in looked ok, we went up to the room and it just looked dirty, the hall way to the room hasn't been vacuumed in months, the floor stunk like smoke so bad, we had a non smoking room. I went down to kitchen stuff since the room had none in it, while waiting a lady was leaving due to the room being dirty, I thought great so I text my hubby to check our room he days, tub has hair in it, bath room is gross..Oh lovely I tell them they have it cleaned the next day for free.. The microwave, freezer, fridge hadn't been wiped out in who knows how long. The dishes I took up all dirty, the room had a gross dirty smell, the Windows were open in the room when we got in it..the water in tub didn't stop running for the whole 7 days, I opened the drawer by the bed it had a plastic cup in it, there was a penny on floor by chair so obviously the room hasn't been vacuumed, just a dirty place!!! I filled out a survey they offered a free night another time I wouldn't give the free room to a bum, gross place...then we check out on Mon then tues my card is charged $250.00 because they said we smoked in it..I have never smoked EVER, SO I had to call and waiting to hear back...funny how you give a negative review and then they charge you for something you didn't do!!More</t>
   </si>
   <si>
+    <t>Harsh M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r305226068-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1517,6 +1679,9 @@
     <t>The hotel is very average. The rooms are dull with chipped wood work. The hotel does not have non-stick utensils which means that you are going to have a hard time cooking. Luckily the washroom was clean. Internet speed is also just fine. You can experience loud voices specially during weekends. The coffee served in express breakfast is decent with nothing hot to eat. The only good think is the cinema hall and eateries just walking distance from this place.You should stay here only if you are visiting for Angels game OR looking for a decent option to stay while visiting Disney land.</t>
   </si>
   <si>
+    <t>Pat C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r299013713-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1544,6 +1709,9 @@
     <t>We stayed at this location twice and tried a 3rd time, but as we were checking in the 3rd time we got disgusted and left.  Each check-in was an argument over the agreed upon rate.  They gave us 3 rates within a few minutes as we stood at the desk.  None of them the rate they agreed to over the phone, which was lower.  The person that gave us the lower price over the phone lied when we gave his name to the current desk person.  He let us drive for 12 hours to get to the hotel just to lie about the price he gave us!  They didn't seem to care one bit!  Besides the rate issues, the sheets would not stay on the bed, kept pulling off.  We went to get towels at the front desk, since they didn't give us any room service in the 8 night stay there.  We waited 3 days to get any towels returned to us, after repeated asking for them.  Finally, we just stayed at the desk until they handed them to us.  The location is good to many attractions in the area, but the hassle is not worth staying at this place.  It seems to have a dirty atmosphere, along with the horrible service.  I do not care to do business with people that lie to me!  I do not recommend this place to anyone.  If you do decide to stay...We stayed at this location twice and tried a 3rd time, but as we were checking in the 3rd time we got disgusted and left.  Each check-in was an argument over the agreed upon rate.  They gave us 3 rates within a few minutes as we stood at the desk.  None of them the rate they agreed to over the phone, which was lower.  The person that gave us the lower price over the phone lied when we gave his name to the current desk person.  He let us drive for 12 hours to get to the hotel just to lie about the price he gave us!  They didn't seem to care one bit!  Besides the rate issues, the sheets would not stay on the bed, kept pulling off.  We went to get towels at the front desk, since they didn't give us any room service in the 8 night stay there.  We waited 3 days to get any towels returned to us, after repeated asking for them.  Finally, we just stayed at the desk until they handed them to us.  The location is good to many attractions in the area, but the hassle is not worth staying at this place.  It seems to have a dirty atmosphere, along with the horrible service.  I do not care to do business with people that lie to me!  I do not recommend this place to anyone.  If you do decide to stay there...Get everything in writting!  Between the bad service, dirty rooms and rate trouble...no way, never again!  Another man came up while we were trying to check i, dealing with our issues,  and had a problem with them using his credit card to pay someone else's bill, not his!  He was upset also.More</t>
   </si>
   <si>
+    <t>nastybreak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r298792319-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1559,6 +1727,9 @@
     <t>First, the staff are quite pleasant. They know they are working n a dump.The hotel is old, worn and has odd smells.  The rooms are pretty much the same.  See the pics I posted. Carpets in rooms are filthy and stained with God knows what. Furniture is all severely worn.  MOLD in refrigerators!!!  Towels, sheets, etc come with HAIR on them!  They jam the washers up and the linens can't get clean. Most linns are wen way down. Towels you can almost see through. Mattress had odd stand on it. Disgusting.  Mattress pad had hair on it. Had to change it twice to get a semi decent one. This is typical of some scumbag who has probably franchised this place and wings every cent out of it by cheating put on everything.  Don't even think of staying here.  More</t>
   </si>
   <si>
+    <t>C G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r283171380-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1577,6 +1748,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>pilotgirl21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r282520112-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1598,6 +1772,9 @@
     <t>I chose this hotel because it was close to Disneyland, it accepted pets, had a kitchen area, and the rates were good.  It's also close to the Anaheim Ducks stadium and the Angels stadium.  The room was clean and I had no problems with the room.  I didn't use the stovetop, but the refrigerator and microwave was clean and worked correctly.  The TV shuts off after being on for too long, which wasn't good for me since I like to leave it on for the dog so he doesn't hear the hallway noises.  We were also across from the elevator, so it was a little noisier than other rooms with people coming and going.  The breakfast was a few muffins and coffee.  The hotel is located in an area that is surrounded by restaurants and a movie theater, so there is some nightlife (bars) within walking distance.  One of Disneyland's parking lots was just two miles down the road, and about half a mile south.  I would recommend this hotel to anyone on a budget who wants to spend time at Disneyland without spending hundreds of dollars per night to stay at a Disneyland resort.More</t>
   </si>
   <si>
+    <t>Paul G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r281968006-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1616,6 +1793,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Mauralela</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r274781148-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1631,6 +1811,9 @@
     <t>I was surprised to find this hotel located at the edge of a movie theater parking lot (not sure what I expected.) Needless to say, it doesn't have much charm but was clean, well priced and conveniently located just a few blocks from I-5, near Anaheim Transit Center and within a block of the Honda Center. You could take a public bus to Disneyland. The goal of my overnight trip was picking up my son from nearby Chapman University, so mission accomplished and we didn't have to get in the car to find dinner and a movie after the move-out.</t>
   </si>
   <si>
+    <t>mclhensley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r274104567-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1655,6 +1838,9 @@
     <t>0 stars. This Hotel was disgusting from the lobby to every aspect of the room. The room did not appear to have been cleaned. The counter tops were dirty, the floor was sticky, the bathroom floor had debris on it, the bed was made sloppily, and to top it off the worn, thin bedspread had fresh blood on it. I immediately checked out of the hotel and received a refund.More</t>
   </si>
   <si>
+    <t>NM_2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r264046541-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1679,6 +1865,9 @@
     <t>We wanted a hotel within walking distance to the stadium.  There is this hotel and one closer about twice the price.  This is a functional place to stay the night but nothing fancy.  We decided to split a room with my in-laws and chose the one bedroom suite so they could have the bedroom and we could sleep on the pull out.  Turns out the "bedroom" only has a half wall separating the living area so our attempts at privacy didn't happen.  The pull out bed is not comfortable but we heard the bed was.  While the place was not luxurious the lobby and staff were great and the convenience factor made the rating much higher.  Plenty of restaurants and bars within walking distance.  If you end up with the couch just drink more and then it will be fine.More</t>
   </si>
   <si>
+    <t>jose_a_rojas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r252498546-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1706,6 +1895,9 @@
     <t>This hotel is right beside the Honda Center in Anaheim, and it's 5 - 10 minutes away from Disneyland (we were visiting the Disney Parks). Room in good condition with all systems in working condition. Also, staff with very good service attitude.More</t>
   </si>
   <si>
+    <t>Pamela Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r247490507-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1721,6 +1913,9 @@
     <t xml:space="preserve">My husband and I have stayed here the last few years when we go to Ducks games. Our last visit on New Years Eve/Day was probably our last. The staff is wonderful! So friendly and check in-check out is quick! But, no cups, plates, siverware in the room anymore (you have to get ALL the way up to your room to find out, then go back downstairs to the front desk and HOPE they have cups); No hair dryers to lend, the door was falling off the hinges, the place has just gone down the crapper. Go to the Ayers up the street. It's more $ but MUCH nicer. </t>
   </si>
   <si>
+    <t>dolphingvp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r247094176-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1745,6 +1940,9 @@
     <t>I have been here a few days so far and things are going well.  The location is great, its like your in the center of everything.  I have never seen so many restaurants in my life.  I would estimate 25 in every 1/2 mile square.  You have access to everything.  Great location for business travelers.More</t>
   </si>
   <si>
+    <t>AlencarTania</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r235337505-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1763,6 +1961,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>ADOLFO N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r235268572-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1781,6 +1982,9 @@
     <t>I wanted to write this as I see a lot of not so nice reviews on this hotel as I read. This hotel Extended Stay is nothing like haters are writing. I am just shocked. This hotel is very nice and clean.The staff and management could not be any nicer. The rooms are are very clean comfy. I had to stay at this hotel because my home was being painted and I wanted a place where I would be able to cook and Extended Stay was just the spot. I will be recommending this property to family and friends that come to visit. I will stay at this location again when I have the need. Thank you to the staff for a wonderful stay.More</t>
   </si>
   <si>
+    <t>rbl950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r235100336-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1802,6 +2006,9 @@
     <t>This is the worst hotel/ motel I have ever stayed at. Filthy,incompetent housekeeping,rude,militant homosexual Manager,an absolute disaster of a dump.the incompetent staff didn't renew my stay when I asked them to,the website is a joke,the rooms smelled like dog urine,hadn't been cleaned in Gid knows how long,there were cigarette butts on the floor underneath the recliner,burn marks on the tile counter...during the stay they incompetently cleaned the individual room air conditioners only a few yards from the hotel with a high pressure washer,spraying mud and muck all over the outside of the hotel.They told my wife and I they wouldn't get yo our room until the next day,when we came back after moving from our home they had come in,even though our Kitty was inside left the AC off in 95 degree weather.The Manager of this flea bag is a hostile homosexual who threatens the guest,refused to call medical treatment for my husband after he slipped and fell on the wet stairway...STAY AWAY!More</t>
   </si>
   <si>
+    <t>DandM500</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r227484548-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1829,6 +2036,9 @@
     <t>Our room was spacious and clean. Lots of things to do close by but it's a little bit of a walk to Disneyland, we drove. Good central location. This is a nice hotel &amp; we'll stay again next time we're in Orange County!More</t>
   </si>
   <si>
+    <t>Sara D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r226770048-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1847,6 +2057,9 @@
     <t>The exterior of the hotel is nice, has ample FREE parking and is super close to a movie theater, Starbucks, and several restaurants. IMO, it is not close enough to Disney to walk (like other have posted) as it is about 3.5 miles away. There is also no shuttle. The check in experience was average and the hotel lobby was nice. My room was decent and seemed clean but there was a musty/moldy smell in one area of the room, close to the a/c. There was also someone complaining of a smell at the front desk when I was checking out. In room 423 I had a nice view of Honda center and some fireworks at Angel's stadium. The negatives were very thin walls and for some reason they don't do wake up calls for some reason. Also, the don't provide much in the way of toiletries although you can ask them if you need some of the basic things. All in all, for the $100 I paid, not bad for a quick one night stay. But things could definitely be improved.More</t>
   </si>
   <si>
+    <t>Brian K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r226374652-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1874,6 +2087,9 @@
     <t>My wife and I were visiting So Cal for a week.  We ended up staying at the Extended Stay on Katella.  The room was just as expected, clean and comfy.  The staff went out of their way to ensure we had a pleasant stay.More</t>
   </si>
   <si>
+    <t>Zona3349</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r222741078-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1901,6 +2117,9 @@
     <t>I stayed at this location while working down the road all summer. The staff could not have been friendlier. Any trouble or concern was promptly fixed and attended to. The location was great for entertainment, sports stadiums and access to major highways in the area. The rooms were hotel rooms... I travel all over the country and to Europe, and the room had all the necessities but they were not glamorous for all those looking for a luxurious stay. Free wifi, great cleaning staff, convenient grab+go breakfast and kitchen area were awesome. Walls/ceilings are thin however.  We were only inconvenienced once by a kid running through the hall and in his room right above us for 2 nights... Overall, a smart stay!More</t>
   </si>
   <si>
+    <t>InvestorI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r219484436-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1923,6 +2142,9 @@
   </si>
   <si>
     <t>Do not stay here.  After our 9 night stay at this Katella location, we left having never felt so angry and so indignant by the way the receptionist Gemma had treated us.  My wife said Ms. Gemma completely embarrassed her in the lobby, in front of other people during the check-in process when I was out parking the car.  My wife was initially surprised when Ms. Gemma told her that our 9-night stay would be charged $813 right then.  My wife told her that she thought that it was a pre-paid reservation, in which Ms. Gemma responded in a very curtly manor "Noooo!"  My wife asked her to explain, and Ms. Gemma just said that we would be charged $813 right now.  When the bill didn't match up to our print-out, my wife asked for further clarification in which she felt Ms. Gemma was very patronizing and condescending towards her.  My wife then didn't want to deal with this extremely rude and unprofessional person any longer, and felt quite embarrassed since there were other people in the lobby at the time, she just asked for the room keys in addition to why wasn't the online discount reflected on the bill.  Ms. Gemma told her that it would be deducted during checkout. When we checkout this morning at 7 am, we were surprised that no one was there to check us out.  It wasn't too early.  It was only 7am. The...Do not stay here.  After our 9 night stay at this Katella location, we left having never felt so angry and so indignant by the way the receptionist Gemma had treated us.  My wife said Ms. Gemma completely embarrassed her in the lobby, in front of other people during the check-in process when I was out parking the car.  My wife was initially surprised when Ms. Gemma told her that our 9-night stay would be charged $813 right then.  My wife told her that she thought that it was a pre-paid reservation, in which Ms. Gemma responded in a very curtly manor "Noooo!"  My wife asked her to explain, and Ms. Gemma just said that we would be charged $813 right now.  When the bill didn't match up to our print-out, my wife asked for further clarification in which she felt Ms. Gemma was very patronizing and condescending towards her.  My wife then didn't want to deal with this extremely rude and unprofessional person any longer, and felt quite embarrassed since there were other people in the lobby at the time, she just asked for the room keys in addition to why wasn't the online discount reflected on the bill.  Ms. Gemma told her that it would be deducted during checkout. When we checkout this morning at 7 am, we were surprised that no one was there to check us out.  It wasn't too early.  It was only 7am. The janitor saw us at the counter, and told us to just leave him our name and room number (in which he took down on a stick-it) and told us that, "When the receptionist comes in later, she will properly check you out."  We definitely wasn't comfortable with this, but we didn't have any other choice, because simply, the receptionist has not come in to work yet according to the nice gentleman who had to check us out. After our flight home, I called back to make sure that we had properly checked out, and that our discount was applied to our final bill.  A girl took my call, and said that we had been checked out of our room.  I then asked for the total of our bill, she told us that it was $813 for the 9 nights we had stayed there (about $85 per night).  That number didn't match with our records, so I had explained to her what had happened.  I said that had there been someone there to properly check us out at 7am, there wouldn't have been a problem with our bill.  I said that a janitor had checked us out, and that I shouldn't have to call back to make sure everything was done correctly (and it wasn't at this point, because the amount girl on the phone told us did not have our online discount added to the total).  I was shocked when she said, "If you continue to talk to me this way, I'll hang up on you."  I said, "What did I say, I was just trying to tell you what happened this morning?"  I then asked for her full name, in which she replied, "I'm not going to give you my full name!"  I then asked for her name and first initial to her last name.  She hung up the phone on me.  Feeling very indignant at this point, I immediately called back and asked to speak to her supervisor or her manager.  She said to call back in the morning.  I told her that I would like to speak to her supervisor now, and this can't wait till the morning.  She said no one is here.  Whether that is true or not, I do not no.  But it's hard to believe that at only 6pm that there is no evening manager or even her superior is there.  I then asked for her supervisor's name.  She said I can get that name in the morning when I call back.  I told her at this point that I just would like her name and her supervisor's name so that I can lodge a complaint against her for the way that my wife and I were treated during and after our stay at her hotel.  She refused to give me either name.  I then said to her, "Are you refusing to give me your name and your superior's name?"  She finally told me her name only, after I had asked her for it 6 times over.  My wife who was beside me at the time just could believe how this person was treating us, and how rude and unprofessional she was.  Ms. Gemma then taunted us, dared us to call tomorrow and complain about her to her supervisor, but she still wouldn't give us the name of her superior.  I am so angry about the way my wife was treated here at this hotel.  I'm indignant about the way I was treated by the same person after our stay there when I was just trying to inquire about whether we had check-out properly when no one was there to check us out besides the janitor, and why our bill didn't match.  We were charged $79 for 7 nights and $89 for 2 nights for just a queen size bed.  It wasn't like we got the hotel for $30 like some of the other posters here.  But even if we did, there was absolutely no excuse to treat us this way.  We wanted to stay here for the full-kitchen, but the room that Gemma gave us had no utensils, plates, cups and pots.  The kitchen was completely empty and useless.  But none of that bother us as much as the way we were treated by this individual.  She's condescending, extremely rude and unprofessional.More</t>
+  </si>
+  <si>
+    <t>devrreia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r215994595-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
@@ -1945,6 +2167,9 @@
 We were suppose to stay for 5 nights but after no more than 20 minutes we decided to stay for the night since we were paying for it anyway and check ourselves out....This hotel came highly recommended and with the price, location very close to Disney, and free parking we thought it was a good deal. When we pulled up the hotel looked nice from the outside, is in a very nice location with good restaurants and a nice theater all in walking distance. When we walked in the staff was friendly and helpful. The lobby was rather dated looking and the hallways smell of stale smoke, Chinese food, and mildew. The room was small with 2 double beds and a kitchenette. There were no pots, pans, utensils, plates, or a coffee pot as promised. What was in the cabinet was an old, dirty drying rack with someone's dirty sock in it. The bed spreads were mismatched and looked like they had just been laid on. The carpet was stained and had crumbs all over and the closet had no door but a curtain instead. The bathtub had severely leaky faucet and the shower head and drain had water stains all over them. Walking down the halls you can hear people yelling at each other (in more than one room) and the ceilings and floors are so thin you can hear people walking around in the rooms above you.We were suppose to stay for 5 nights but after no more than 20 minutes we decided to stay for the night since we were paying for it anyway and check ourselves out. I have stayed at cheaper, lower rated hotels and not felt quiet as dirty and uncomfortable. This is by far the worst hotel I have stayed in. The one saving grace was the fact that the hotel had free Wi-Fi so I could sign on to book another hotel for the next 4 nights.More</t>
   </si>
   <si>
+    <t>ernieLoomisCa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r210929553-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1960,6 +2185,9 @@
     <t>Good location by Honda center and in the parking lot of a dining and entertainment complex.  Huge kitchen with full size frig, microwave, 2 burner stove.  Nice size bathroom (no amenities), smallish closet and desk area.  Compared to other budget properties, I felt I got my monies worth.</t>
   </si>
   <si>
+    <t>EBinLACA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r206639109-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1978,6 +2206,9 @@
     <t>I stayed here on a business trip because it was the hotel my company recommended. It was a good value even for a stay that was not extended! The room was very clean and comfortable. Windows open and highway is far enough away that the noise was not a problem. There are several restaurants in the complex. Room has bed, dresser, comfortable chair, desk and table (nice to have both desk and table). Note that only soap is provided, although you can ask at the desk for shampoo and other amenities. The bed was comfortable, although the pillows are the block-of-foam type. Alma at the front desk was cheerful and helpful.My only complaint was that the previous guest had left the dresser drawers quite dirty and housekeeping had not noticed and cleaned them. It didn't matter to me since I was there for only one night and didn't need to unpack, but I would not have been happy if I had been staying longer. Otherwise, the room was perfectly clean, including the kitchenette.More</t>
   </si>
   <si>
+    <t>Sunil B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r205858379-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -1993,6 +2224,9 @@
     <t>Excellent and amazing experience. Truly felt nice and never felt home sick. Extended staff really provide extended services which pleased me very much, any given day i am willing to comeback and stay to relax</t>
   </si>
   <si>
+    <t>Bill T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r192367166-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2020,6 +2254,9 @@
     <t>While home for the holidays from my job in China I ended up with some emergency surgery. My three week stay was now two months.  My son found this place after doing some research. It is a motel type room but with a kitchenette. He negotiated a terrific price for the area for my first months stay. It is located next to the Honda Center in the corner of a large lot which services several good restaurants and a movie theatre.  Caleb, the young man who runs it during the day is very sharp and responsive.  It attracts as near as I can tell all types of customers, long term like me and daily visitors.  It is quiet and when it hasn't been the staff has been on it immediately. I haven't bothered with the breakfast so I can't speak to it but with the kitchenette I just hit the local supermarket and eat my normal breakfast. I wished it had a common area to sit outside but the layout isn't conducive to that.  I've checked other extended stay locations on TA and in person and this one clearly is the best.More</t>
   </si>
   <si>
+    <t>Jerry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r192163684-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2047,6 +2284,9 @@
     <t>I have to say, I wonder why some folks have a problem with this hotel.  the wife and I ALWAYS stay at this hotel when we trek down to southern california.   We always get one of the larger rooms (they used to call them "handicapped rooms" but now they are called suites). No, breakfast is not the greatest - kind of lame actually but it's obvious the hotel is trying to at least provide something that attempts to mirror those better breakfast servings that one gets at the "more expensive" hotels.  Such is one of the reason Extended Stay can offer cheaper prices.  This is a long term place folks, one whose rooms are essentially apartments to many folks who for whatever reason, can't afford a house or apartment.  Noise?  Anywhere you go you risk those jerks who do not understand the word "consideration".   Like   those places, one just hopes for quiet.  If a problem occurs, one then hopes that management takes care of it.  In the 10 or so times we have stayed here, noise was a problem only once but it was intermittent and calling the staff folks was not necessary.   Sheesh!!  Anyway, we are heading back south soon and as always, will stay at this hotel.More</t>
   </si>
   <si>
+    <t>afwingmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r191702073-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2071,6 +2311,9 @@
     <t>When I arrived it was too early for check in. Caleb not only made the check in process easy he was able to get me an early check in.  He was very professional and friendly.  For the price and location of the hotel it is exactly what I expected.More</t>
   </si>
   <si>
+    <t>Susan E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r188619123-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2092,6 +2335,9 @@
     <t>"Your Home Away From Home' is no just a slogan with Extended Stay America in Orange, Ca.They really mean it!  A newly refurbished, comfortable, clean room with provisions for light housekeeping, a knowledgeable, friendly staff, a location near entertainment venues and a variety of restaurants have made Extended Stay America in Orange our three month winter home for the past twelve years for my husband and me. Before he retired, my husband worked in the aviation industry and we have been able to travel around the world, staying in a variety of hotels in many countries.  In no other place have we ever felt as welcome or felt that we were getting as much for our money as we do here.  Be it for one night, one week, one month or an entire season, you and your pocketbook will feel at home at Extended Stay America in Orange. We hope to be able to come for at least another twelve years.More</t>
   </si>
   <si>
+    <t>gwhite855</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r188574718-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2104,6 +2350,9 @@
     <t>Great little hotel, make reservations early as it sells out quickly. Great location and very friendly and helpful staff.  Nice rooms with completely outfitted kitchens. Also a theater and many restaurants within walking distance of hotel. On Katella Street, near Batavia</t>
   </si>
   <si>
+    <t>John N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r188536600-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2122,6 +2371,9 @@
     <t>I was a bit skeptical of this place because of the ratings on hotels.com but I booked it anyway for the weekend before xmas and checked out xmas day (3 nights total). The location is great! There are a bunch of restaurants 100 yards away and they were good food! The hotel itself is located inside a shopping like area which includes a theater. The location is about 4-5 miles away from Disneyland, close, but not walkable. The room itself was a good size. There was a full-sized frig, electric stove top, sink, pot, strainer, butting board, spoons, forks, dishes, bowls. It was not what I expected and really did  enjoyed this room. I would stay at this property or extended stay America in general.More</t>
   </si>
   <si>
+    <t>Noemi220</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r181203824-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2143,6 +2395,9 @@
     <t>I will always cherish my stay at this hotel. The staff, no words could describe how they have grown so close to my heart. They are so friendly, courteous, so sincere and always ready to help. Whenever I come in they always take time to greet the guests and ask how everything is with our stay, if our room is clean or if ever we needed anything in our rooms. They also have a grab and go breakfast which is also a great feature, plus the rooms come with a full kitchen and a big fridge! Not all hotels have this great amenities! Starting from the manager Nidhi, Caleb, Gemma, Michelle, and the rest of the staff including the cleaning crew are so adorable! This is one hotel that is highly recommendable!!!!More</t>
   </si>
   <si>
+    <t>Bananas2126</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r181157437-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2153,6 +2408,9 @@
   </si>
   <si>
     <t xml:space="preserve">Other than the annoying guest downstairs, the broken bathroom vent, the clogged kitchen sink, and the hard beds, our stay was ok. The employees were super friendly and accommodated my needs. Plenty of restaurants and a Starbucks within walking distance. There's even a movie theater! We stayed in the Suite on the 4th floor. Maybe it was just our room that was bad. Other friends enjoyed their stay here and recommend this hotel to us. Hopefully your stay is better than ours. </t>
+  </si>
+  <si>
+    <t>billydc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r175578981-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
@@ -2184,6 +2442,9 @@
 3) Even though this hotel is close to these attractions, crime is near zero. There is 24x7 security in the parking lot and the hotel is very strict about parking...I am working in California on a long term contract and traveling back and forth to my family in Colorado. I have been at this Extended Stay for almost a full year now. I love the place, the service and the people (both staff and other long term guests). Because I am a long term guest, I often leave on travel for business and family and leave my room and belongings behind. When I come back my room is clean and everything is safe and secure. I come back to Extended Stay feeling like I am returning to my second home. A couple of thoughts for other travelers:1) This is an extended stay hotel with the services designed to reduce the price and make an extended stay affordable. If you want super plush bed linens, bath robes, free this and that and 24 hour room service then you should stay at an expensive hotel. This Extended Stay does have free WiFi, Free limited cable TV, Free Grab-n-Go breakfast, snack machines, laundry room and more.2) This hotel is very close to Honda Center, Angel Stadium and Disney. I watch out my window and see the fireworks from Angel Stadium and I can hear the fireworks each night from Disney. 3) Even though this hotel is close to these attractions, crime is near zero. There is 24x7 security in the parking lot and the hotel is very strict about parking so you will always have a place to park. The city of Orange Police Department is very diligent, polite and always on the move in their fine city.4) There are many excellent restaurants within a 3-4 minute walk including a Mexican food restaurant with a fabulous lunch buffet, a wonderful pub, a great steak/prime rib place, two or three other restaurants with American fare, a gourmet pizza joint, a Thai restaurant and a Starbucks and a Subway.5) Lots of other restaurants deliver including multiple Asian restaurants, sandwiches/burgers, pizza and more.6) There is a major 3D cinema located in the same parking lot as the hotel. Wonderful.7) There is no pool or workout room. But, there is another Extended Stay a couple of miles away that you have free access to their workout room. You get the benefit without paying the higher price.More</t>
   </si>
   <si>
+    <t>Andy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r171133062-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2202,6 +2463,9 @@
     <t>It's my 4th time staying at ESA in Ketella, Orange. Everytime when I step in the entracen, there's always a warm welcome with smail on the staff, which makes you feel really good. Besides this, whenever you have questions, or minor issues, they are always there to assist you and solve them, which is very helpful. It's a good place for people who wants to prepare their own food, as there's a standard kitchen, microwave, toaster, coffer maker, and family size refrigerator with filted water fomr the sink.There's also a laundry room with washer, dryer on the first floor.  It will be much better if there's swimming pool, or other facilities, such as GYM to be used.More</t>
   </si>
   <si>
+    <t>Rich S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r170510119-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2229,6 +2493,9 @@
     <t>This hotel is great for short or long stays. The place is clean and was recently re-furnished w/ flat screens and new decor. The staff is great and it is located right next to Angels Stadium, Honda Center, and many restaurants. I would recommend for business travel and vacation.More</t>
   </si>
   <si>
+    <t>Jinelle M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r170363168-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2247,6 +2514,9 @@
     <t>Very nice hotel and good customer service. clean and not to expensive. Area is full of attractions. lots of restaurant, big theater, shopping centers. Spent nice vacation at there. Strongly recommended to all.More</t>
   </si>
   <si>
+    <t>Diss13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r167586689-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2265,6 +2535,9 @@
     <t>This is a basic hotel with a cheap rate.  It is extended stay so there is no daily room service.  There is a full kitchenette with pots and pans for cooking and a big fridge.  It is near the Honda Center, but is hard to find because the hotel is actually inside the parking lot of a shopping center -- with no signs for the hotel.  Look for signs for a movie theater.There is a very large multi-screen movie theater and lots of restaurants within walking distance.There is no exercise room or pool.  The breakfast is a bowl of oranges and apples, granola bars and oatmeal mix.The staff was not super friendly and there is no bell to call someone to the desk.  They did promply fix a problem with the room.  The door keys kept malfunctioning and locking us out. The bathroom had hairs on the walls -- not the best cleanliness level.  The hallways smelled like smoke even tho supposed to be non-smoking hotel.If you need a cheap hotel in this location it would be a good choice.More</t>
   </si>
   <si>
+    <t>gotchabebe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r167572753-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2286,6 +2559,9 @@
     <t>OK.....I know the place has a cheap price --- but from rude check-in girl -- to all the other horrible attributes this hotel has --- prompted me to write this review.*Rude and very UNFRIENDLY check in lady ! (if she hates her job so bad - she needs to find another one!)*NO maid service*Had to take out our own trash*Wait 3 hours for clean towels to take a shower*ants everywhere in room*hotel has same address as another place - so mapquest and google maps takes you in the wrong direction.YUCK YUCK YUCK to this place -- will never stay again --- dirty and nasty place !More</t>
   </si>
   <si>
+    <t>LVSnooze</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r167528547-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2301,6 +2577,9 @@
     <t>Arrived at the hotel and was pleased with the outside grounds.  Went to check in and was told we couldn't because the rooms weren't ready.  Once we came back, we checked in unloaded our car only to find one of our rooms was still unmade.  In our other room, the sheets on the beds were old and worn.  Stained bedding.  We had to bring our old towels to the front desk everyday in order to get new ones.  Shower leaked, toilet was not attached to the floor.  In the kitchen, there wasn't a complete set of anything.  I ended up buying plastic utensils, plates and cups.  We shared our room with two spiders and a bunch of ants.  On top of all that...there was no pool.  I've stayed in other extended stays and was completely satisfied and was hoping to have a good experience at this one...not so much.  If this was my first time staying at an extended stay, I would never consider staying at another one.More</t>
   </si>
   <si>
+    <t>jeleda913</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r166912222-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2328,6 +2607,9 @@
     <t>The first night of our stay, I discovered that the sheets on my bed were stained and dirty.  When I asked that the linens be changed, they (eventually) brought up fresh sheets; but I had to put them on myself, as "there's no one in housekeeping right now".  The next night, our other bed was invaded by ants - the bed was COVERED in them!  When we asked to be transferred to another room, we were told that we couldn't be accommodated because the hotel was "booked up".  The site we booked through was fortunately able to get us into a different (and much better) hotel.  Finally, on the way out we were sweeping the room to be sure we hadn't forgotten anything.  When I looked under the beds, I found garbage - literally!  The floor under the beds was covered in old wrappers, food scraps, and other debris.  I absolutely would NEVER stay at an Extended Stay property ever again!  I normally stay at Radisson hotels; but my brother had booked the reservation.  That's a mistake I won't make again!More</t>
   </si>
   <si>
+    <t>dagrlz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r166867720-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2352,6 +2634,9 @@
     <t>We went to see Shane Victorino (Red Sox) vs. Angels ball game.  so we drove 4 hours from Vegas and we stayed on 7/5/13 overnight.  Our room was clean and 10 minutes driving from the stadium.  Couldn't beat it for the price.  They are pet friendly too!They advertise breakfast, but it is just a grab and go, and they really need to clean the coffee urns out.  other than that, we would highly recommend it!More</t>
   </si>
   <si>
+    <t>bkc55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r166533872-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2376,6 +2661,9 @@
     <t>My husband and I stayed at the Katella Ave/Orange location and we were very pleased with our stay. We were there from June 6-14,2013. We originally booked for the 7th but arrived in town a day early-there was no problem getting the room a day early after calling ahead to notify them. When we arrived in the lobby, there was this very strong stale food odor like the carpet needs to be deep cleaned.  At this point, I was concerned about what my room might smell like. There was no need to worry.  The room was clean, neat and odorless.  It felt like a little "home away from home" for the week we were there.  As everyone mentions, the staff is very friendly and knowledgeable.  It's a great place to come home to while away from home.  It is in a central location and I would definitely stay there again when in southern California.More</t>
   </si>
   <si>
+    <t>Debbie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r164508079-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2400,6 +2688,9 @@
     <t>I've stayed at this hotel many times and keep coming back because of their great front office staff.  I have allergies and osteoporosis.  They have been very accommodating with finding the best room for my stay.  Five stars for their friendliness and can-do attitude!More</t>
   </si>
   <si>
+    <t>McrowCapistranoBeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r163992063-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2427,6 +2718,9 @@
     <t>I was hesitant at best, to stay at a location so close to the Honda Center, Angel Stadium, etc. I just figured there would be too much noise, drunk kids, who knows. There's a security staff that is very vigilant in patrolling the parking lot outside the hotel, a movie theatre and several, and I mean several, very good restaurants in the parking lot. It's in the middle of Orange County in the city of Orange, you're close to everything. The staff is very professional at all times, kind as can be in the mornings, and probably puts up with more than should be allowed. You'll never want for anything during your stay here, they're doing it right. Say a big hello to Nidhi, Caleb, Francisco, and the rest of the gang for me when you stay here...you won't regret it!More</t>
   </si>
   <si>
+    <t>A_S222013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r161645226-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2478,6 +2772,9 @@
     <t>My husband and I stayed here to be close to the Honda Center for a Ducks game. Good location, clean overall (rooms/lobby/grounds.) It was so nice having a kitchen/dining area. Our room was across from the elevator and next to the lobby so I was a little fearful of the traffic noise. I didn't hear anything! Staff is wonderful! Friendly, professional and very helpful. We will definatly stay again :)More</t>
   </si>
   <si>
+    <t>82SAH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r158411966-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2505,6 +2802,9 @@
     <t>The major plus for me staying at Extended Stay America is that I was able to bring my cat and not have an outrageous pet fee.  My place was being fumigated/tented for 3 days and I needed to find a place that was reasonably priced, clean, provides a mini kitchen, located near many places to eat and freeway accessible.  I exceptionally appreciated Mima(sp?) giving me the opportunity to check in early since I had to be out of my place by 8 am, she told me to come in at 12p and she'll have a room ready for me....she kept her word...and I was allowed a late check-out without any additional charge. I highly recommend staying here especially if you're concerned about having your pet with you and you want A+ Customer Service.More</t>
   </si>
   <si>
+    <t>sakshimalik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r157900078-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2529,6 +2829,9 @@
     <t>truly home away from home. very comfortable. Located 10 mins from Disneyland. very economical. The place is very calm, has a kitchennette...has restaurants, 7 - 11 etc nearby. The staff is wonderful &amp; very helping. special thanks to Bryan for helping me around!Must stay.....More</t>
   </si>
   <si>
+    <t>Mahesh8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r154304741-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2556,6 +2859,9 @@
     <t>In few words it is home away from home. I recommend it for people who are looking for a place where they can cook their own food. Front desk staff is really good and responsive. I like to stay here if go to this place in future.More</t>
   </si>
   <si>
+    <t>ebalien</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r154204959-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2574,6 +2880,9 @@
     <t>Stayed here for about 2 months and had a great experience. The room was cozy, amenities were provided and made it feel that I was in an apartment, not a hotel. I like that I could cook and feel at home. The staff was extremely friendly and even greeted me by name...made me feel very welcome. I would recommend staying here to anyone! Great location, close to many restaurants and movie theater, and safe area. Very happy with my experience and will definitely stay again in the future!More</t>
   </si>
   <si>
+    <t>mhinsm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r153148762-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2598,6 +2907,9 @@
     <t>Nice rooms in good location near the Honda Center and just a short distance from the Anaheim Stadium. Staff are excellent- friendly and competent. Primary negative is  the somewhat limited television channel selectionMore</t>
   </si>
   <si>
+    <t>lucy v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r145330375-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2647,6 +2959,9 @@
   </si>
   <si>
     <t>I have been staying here for two months so far and plan to stay much longer. The rooms are perfect, clean and well taken care of (look at the pictures and that is exactly what they are like). The cleaning staff are fabulous. In fact, all the staff are fabulous! Friendly, calling guests by name, and focusing on resolving any issues that you might have. I am allergic to smoke and pets...no problems at all in my excellent room. The management has worked with me to make sure I get the best rate and service possible. I have traveled all over the world and stayed in some dumps and stayed in some palaces. This is a great hotel with great service at a great price. Definitely the friendliest and most caring staff I have ever experienced anywhere.More</t>
+  </si>
+  <si>
+    <t>Taryn F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r143360116-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
@@ -2682,6 +2997,9 @@
 The night after I had my surgery, I was laying in bed watching TV and I felt something on my chest. I freaked out, brushed it off my chest, and turned the lights on. I saw on the sheets it was a tiny bug, not a roach, it was nothing I had ever seen before. I got to wondering why was there a BUG in my bed and was there more?!?! I started taking off the sheets, and before I could even get the bed bare bones, I saw MORE of these...I would not be writing this review had the hotel and corporate headquarters handled me and my serious problem at their hotel appropriately. Plus, this is a SAFETY issue! And by safety, I mean I had been bitten by BED BUGS!!!!!!!!!!!I had stayed in CA for a full week, getting surgery, and needed a fairly reasonable place with accomodations, such as a kitchen, for my long stay. I stayed at this hotel about 4 weeks ago. During my stay, I had asked upon making my reservations for a quiet room, since I was having surgery. They first put me in a room on the first (noisy) floor right smack in front of the elevators! I immediately asked and went to another less-trafficed room. The second room had a broken TV, I learned later that night after unpacking. I had to repack, and moved to yet, another room. The night after I had my surgery, I was laying in bed watching TV and I felt something on my chest. I freaked out, brushed it off my chest, and turned the lights on. I saw on the sheets it was a tiny bug, not a roach, it was nothing I had ever seen before. I got to wondering why was there a BUG in my bed and was there more?!?! I started taking off the sheets, and before I could even get the bed bare bones, I saw MORE of these same bugs!!!!!!!!!!! I started taking pictures with my phone and then went to the Internet to do some research. Sure enough, dead 100-percent on, these were BED BUGS!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!I called the front desk numerous times, no answer! I went downstairs, nobody there! There was no way to get a hold or find anybody! So much for emergencies, huh!? I started calling around to other hotels, and everything was booked!! There was some major Christian Ladies convention in the area. Then I had to get in my rental car in the middle of the night, just having surgery and being sick with a new cold!, and drive around to find a hotel. I went to a local hotel (Ayres Hotel), and they were nice enough to call around and find me one, feeling sorry for me and disgusted by my bed bug ordeal. My hotel was in another city!! I then had to drive there, and check in.Then I went back to this Extended Stay, with nobody still around to help me, packed all my stuff, and drove back to the new, clean hotel. I had not slept all night!!!Since it was now the morning, I went back to Extended Stay, showed them the pics of the bed bugs on the sheet, and in fact, I gave them one in a baggie!! By then, the bites I had suffered had not surfaced yet. They were not the least bit helpful. Doesn't surprise me.For the weeks following that horrific ordeal, I had developed bed bug bites on my body and had them treated. Oh yeah, I was smart and took pics before they were treated :-) I had also contacted the corporate office, and left numerous messages with people (higher up's), I filed complaints, I called and called and called. Nobody EVER returned my calls. Doesn't surprise me either.This is a serious health issue that the hotel could care less about. I spent my time writing this to let you all know you are taking a risk staying at this hotel. As to date, because of the lack of anything on the hotel and corporate's part, the Orange County Health Dept is involved and I've contacted a lawyer. As for Extended Stay, YOU, yes YOU, dug your own grave on this, and now you will pay the price.More</t>
   </si>
   <si>
+    <t>Mike C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r141447314-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2706,6 +3024,9 @@
     <t>I recently booked a 5-week stay the Extended Stay on Katella, and was very pleased with the overall experience. For starters, I booked the room online a few days before I needed to check in, and by the time I clicked to finalize the reservation there were only queen beds available. I am 6'8" and would have felt like the Dr. Seuss character who either had his head or feet poking out of the bed cause it was too short. I called the hotel directly, and the person at the front desk switched me to a king without hassle or delay. When we arrived, the host was very pleasant and got us checked right in. Within one or two days, all of the staff knew my wife and I by name and made a point of greeting us each time we came in or out. This made the stay all that much more enjoyable, as we felt like part of the "family."If you are looking for first class accommodations and mints on the pillow, this s not a good option. but if you want a quiet, comfortable, affordable, and overall very pleasant place to stay I highly recommend this facility.More</t>
   </si>
   <si>
+    <t>billydc57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r141439071-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2721,6 +3042,9 @@
     <t>I have stayed in hotels all over the world. The staff at this extended Stay America hotel is the friendliest and most respectful I've ever encountered. The hotel is clean in a great location with movie theater and restaurants nearby. Disneyland is right down the street. The fully equipped kitchen makes life really easy and inexpensive. The bed is comfortable with lots of pillows and a recliner makes for a relaxing evening. I have been here for 2 weeks now and love it.More</t>
   </si>
   <si>
+    <t>Camaroman87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r141053221-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2745,6 +3069,9 @@
     <t>When I first checked in I was warmly greeted by the girl at the front desk, her name was Sabrina. At first, I thought it was Dakota Fanning working the front desk. However, the way in which I was greeted was the reason why I decided to stay because I was not going to stay due to geographical reasons, but I did. All the staff are both professional and very attentive towards their guests. I have been in five star/five diamond joints, that have had unfriendly staff. At the Bellagio I had ten chocolate bars stolen by housekeeping that I had purchased at their rival locationl, The Venetian. The housekeeper had the decency to place my newspaper in the coffee table and disturbed a ninety dollar half eaten steak left in a to go box. I had over tenthousand dollars worth of jewelry in the safe along with cash. Meanwhile, it was indicated at the door to housekeeping that their presense was not required. Housekeeping at the Extended Stay are very professional and respectful. The rooms are very clean and everything is new. All the rooms are like having a small apartment. The doors don't keep the noise in and the halls are noisy sometimes loudness coming from a room with a guest having a "casual encounter with a lady". The staff here are way more attentive then staff at a five star joint. I would like to thank Sabrina,...When I first checked in I was warmly greeted by the girl at the front desk, her name was Sabrina. At first, I thought it was Dakota Fanning working the front desk. However, the way in which I was greeted was the reason why I decided to stay because I was not going to stay due to geographical reasons, but I did. All the staff are both professional and very attentive towards their guests. I have been in five star/five diamond joints, that have had unfriendly staff. At the Bellagio I had ten chocolate bars stolen by housekeeping that I had purchased at their rival locationl, The Venetian. The housekeeper had the decency to place my newspaper in the coffee table and disturbed a ninety dollar half eaten steak left in a to go box. I had over tenthousand dollars worth of jewelry in the safe along with cash. Meanwhile, it was indicated at the door to housekeeping that their presense was not required. Housekeeping at the Extended Stay are very professional and respectful. The rooms are very clean and everything is new. All the rooms are like having a small apartment. The doors don't keep the noise in and the halls are noisy sometimes loudness coming from a room with a guest having a "casual encounter with a lady". The staff here are way more attentive then staff at a five star joint. I would like to thank Sabrina, Mena, Nidhi, and Beverly. Their friendliness I and great service skills are the reason why I extended my stay.Rich.More</t>
   </si>
   <si>
+    <t>Gayle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r135936173-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2772,6 +3099,9 @@
     <t>My stay has definitely been extended, and the staff here couldn't be nicer or more professional.  The location is very convenient, nice and quiet - except of course when the Angels win and you can see the fireworks from your hotel window!!  Mena and Nidhi are the best.More</t>
   </si>
   <si>
+    <t>ferenc55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r135219071-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2796,6 +3126,9 @@
     <t>I can't believe people reviewed this as excellent! It is so sleasy, so noisy, so low life, the environment so cheap, I booked it to save $100/per night but I couldn't sleep so what was the point, plus I hated evey minute but coudn't find another place to go at 10pm at night. I would strongly advise anyone with any refinement to avoid this at all cost.More</t>
   </si>
   <si>
+    <t>bill D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r135210234-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2817,6 +3150,9 @@
     <t>I just wanted let you know I have stayed here quite a few months, and I am still satisfied.  I enjoy your establishment because I always feel relax and feel rested. I have enjoy my visit here, and the rooms are always clean and comfortable. I would like to send out a special recommendation of appreciation for Nidhi, Mina, Beverly and Sabrina, Lucy. They have welcomed me in a VIP guest. They have expressed a great deal of professionalism and I hope they are recognized for there ability to make every guest feel like this is there home away from home. They all make every guest feel like family here. The Staff always wear a smile on their face and come to work with a positive attitude ready to serve their guests and resolve any problems with a smile on there face.More</t>
   </si>
   <si>
+    <t>Rudolph N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r133378922-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2844,6 +3180,9 @@
     <t>My stay here in Orange Extended Stay has been a pleasant experience thus far. The entire staff is such a delight and very supportive of the guest. I would like to send out a special recommendation of appreciation for Nidhi, Mina, Beverly and Sabrina. They have welcomed me in a VIP guest. They have expressed a great deal of professionalism and I hope they are recognized for there assistance. My wife and I have enjoyed it to the fullest of capacity. Thank You all.More</t>
   </si>
   <si>
+    <t>Kara M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r132593125-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2865,6 +3204,9 @@
     <t>What a find!  ...located by The Honda Center, Anaheim Stadium, Disneyland and Medieval Times - - nestled amongst The Lazy Dog Cafe, CineMark Theaters and a Starbucks.TOURISTS:  You will get reasonable rates for a clean room.  Please note there is no pool.  But if you are here visiting, you shouldn't be hanging out around the hotel you should be out sight seeing and enjoying Southern California, right?BUSINESS PEOPLE:  I was here on business and lived at this hotel for four months (with my small dog) and I had a WONDERFUL experience. The rooms were recently remodeled with a fresh coat of paint and new carpet.  And after reading some of the other reviews it seems this hotel desperately needed this face lift.  I hope they continue to make other upgrades.  There is also a park (hidden) behind the hotel that is great to walk or bike with your pooch.The real reason I would recommend this hotel is for the EXCEPTIONAL STAFF.  Nidhi, Mina, Bev and Sabrina should truly be recognized for THE BEST customer service!  These ladies ALWAYS wear a smile on their face and come to work with a positive attitude ready to serve their guests.  I have seen them all handle some difficult guests with such effortless grace.  You will feel right at home.More</t>
   </si>
   <si>
+    <t>Craig C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r131102935-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2883,6 +3225,9 @@
     <t>I stay about 280 days a year away from home and always try and stay at Extened Stay. And as always my stay here so far after about 5 weeks has been up to what I always find at these hotels. Very friendly staff, front desk personal are a 10 as well as the cleaning staff. Everyone here makes me feel as if I were home. Thank you all so much! Look foward to the next 6 to 7 weeks. The only  thing I wish they had would be a pool, and more TV chanels.Craig Combs,More</t>
   </si>
   <si>
+    <t>Ed E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r129479021-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2901,6 +3246,9 @@
     <t>I'm writing to once again say THANKS !!... to the professional staff at the Extended Stay America Orange, Ca - Katella location. Nidhi Desai (Hotel Manager), Wilhelmina, Beverly and Sabrina for treating me as a "5-star" customer. This along with their newly up-graded and CLEAN rooms - may also explain why I keep coming back. ( I believe this to be my 7th stay in this location.) I wanted to publicly state my upmost appreciation for a job well done. Best Regards,Ed EscobidoNational Sales Manageridh by St. Simons, Inc.More</t>
   </si>
   <si>
+    <t>susan c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r126717293-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
   </si>
   <si>
@@ -2917,6 +3265,9 @@
   </si>
   <si>
     <t>March 2012</t>
+  </si>
+  <si>
+    <t>J S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d225912-r126537612-Extended_Stay_America_Orange_County_Katella_Ave-Orange_California.html</t>
@@ -3436,43 +3787,47 @@
       <c r="A2" t="n">
         <v>42640</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146715</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3484,56 +3839,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42640</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>65090</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3545,56 +3904,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42640</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146716</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3606,56 +3969,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42640</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146717</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3667,56 +4034,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42640</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146718</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3728,56 +4099,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42640</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146719</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -3799,56 +4174,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42640</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146720</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -3870,56 +4249,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42640</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146721</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3941,56 +4324,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42640</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146722</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -4012,56 +4399,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42640</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>97768</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -4073,56 +4464,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="X11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Y11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42640</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>54120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -4134,56 +4529,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42640</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146723</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -4201,56 +4600,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42640</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146724</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4266,56 +4669,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42640</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146725</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -4331,56 +4738,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="X15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42640</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>15691</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -4402,56 +4813,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="X16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42640</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>6534</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -4473,56 +4888,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="X17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Y17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42640</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146726</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -4544,56 +4963,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="X18" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Y18" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42640</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>31273</v>
+      </c>
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="J19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="K19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4609,56 +5032,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="X19" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Y19" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42640</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146727</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="J20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4680,56 +5107,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="X20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Y20" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42640</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146728</v>
+      </c>
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="J21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="K21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -4751,56 +5182,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="X21" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="Y21" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42640</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146729</v>
+      </c>
+      <c r="C22" t="s">
+        <v>243</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="J22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4822,56 +5257,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="Y22" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42640</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146730</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -4893,56 +5332,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="X23" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="Y23" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42640</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146731</v>
+      </c>
+      <c r="C24" t="s">
+        <v>262</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="J24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O24" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4964,56 +5407,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="X24" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="Y24" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42640</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146732</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="K25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="L25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O25" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -5035,56 +5482,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="X25" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42640</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146733</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -5106,56 +5557,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="Y26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42640</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>1539</v>
+      </c>
+      <c r="C27" t="s">
+        <v>286</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="L27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -5177,56 +5632,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="X27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="Y27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42640</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146734</v>
+      </c>
+      <c r="C28" t="s">
+        <v>295</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="J28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="K28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="L28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -5248,56 +5707,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="X28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="Y28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42640</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146735</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="J29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="K29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -5319,56 +5782,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="X29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="Y29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42640</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146736</v>
+      </c>
+      <c r="C30" t="s">
+        <v>313</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="K30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="L30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -5390,56 +5857,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="X30" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="Y30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42640</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146737</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="J31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="K31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -5461,56 +5932,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42640</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146738</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5522,56 +5997,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="X32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="Y32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42640</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146739</v>
+      </c>
+      <c r="C33" t="s">
+        <v>338</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="K33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5583,56 +6062,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42640</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146740</v>
+      </c>
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="O34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5650,56 +6133,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="X34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Y34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42640</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146741</v>
+      </c>
+      <c r="C35" t="s">
+        <v>357</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="J35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="K35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="L35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="O35" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5711,47 +6198,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="X35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="Y35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42640</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146742</v>
+      </c>
+      <c r="C36" t="s">
+        <v>367</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="K36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="L36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -5768,56 +6259,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="Y36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42640</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146743</v>
+      </c>
+      <c r="C37" t="s">
+        <v>376</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="J37" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="K37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="O37" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5835,56 +6330,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="X37" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="Y37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42640</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>12985</v>
+      </c>
+      <c r="C38" t="s">
+        <v>383</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="J38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="L38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O38" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5896,56 +6395,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="X38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42640</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146744</v>
+      </c>
+      <c r="C39" t="s">
+        <v>392</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O39" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5961,56 +6464,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="X39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42640</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146724</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="J40" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="K40" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O40" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -6026,56 +6533,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="X40" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="Y40" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42640</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>408</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="K41" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="L41" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -6087,56 +6598,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="X41" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="Y41" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42640</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146745</v>
+      </c>
+      <c r="C42" t="s">
+        <v>418</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="L42" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -6154,56 +6669,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="X42" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="Y42" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42640</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146746</v>
+      </c>
+      <c r="C43" t="s">
+        <v>428</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="L43" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -6215,56 +6734,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="X43" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="Y43" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42640</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146747</v>
+      </c>
+      <c r="C44" t="s">
+        <v>438</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="J44" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="K44" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="L44" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="O44" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -6282,56 +6805,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="X44" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y44" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42640</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>109454</v>
+      </c>
+      <c r="C45" t="s">
+        <v>448</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="J45" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="K45" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="L45" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -6347,56 +6874,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="X45" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="Y45" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42640</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146748</v>
+      </c>
+      <c r="C46" t="s">
+        <v>458</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="J46" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="K46" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="L46" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -6408,56 +6939,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="X46" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="Y46" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42640</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146749</v>
+      </c>
+      <c r="C47" t="s">
+        <v>467</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="J47" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="K47" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="L47" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="O47" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6469,56 +7004,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="X47" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="Y47" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42640</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146750</v>
+      </c>
+      <c r="C48" t="s">
+        <v>477</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="J48" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="K48" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="L48" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="O48" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6530,56 +7069,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="X48" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="Y48" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42640</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146751</v>
+      </c>
+      <c r="C49" t="s">
+        <v>487</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="J49" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="K49" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="L49" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="O49" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6595,56 +7138,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="X49" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="Y49" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42640</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146752</v>
+      </c>
+      <c r="C50" t="s">
+        <v>496</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="J50" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="K50" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="L50" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6656,56 +7203,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="X50" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="Y50" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42640</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>4081</v>
+      </c>
+      <c r="C51" t="s">
+        <v>506</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="J51" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="K51" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="L51" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6717,56 +7268,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="X51" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="Y51" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42640</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146753</v>
+      </c>
+      <c r="C52" t="s">
+        <v>514</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="J52" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="K52" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="L52" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6778,56 +7333,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="X52" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="Y52" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>42640</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146754</v>
+      </c>
+      <c r="C53" t="s">
+        <v>523</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="J53" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="K53" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="L53" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="O53" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6847,50 +7406,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>42640</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146755</v>
+      </c>
+      <c r="C54" t="s">
+        <v>529</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="J54" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="K54" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="L54" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="O54" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6908,50 +7471,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>42640</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C55" t="s">
+        <v>536</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="J55" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="K55" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="L55" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6965,41 +7532,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>42640</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146756</v>
+      </c>
+      <c r="C56" t="s">
+        <v>543</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="J56" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="K56" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="L56" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
@@ -7018,50 +7589,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>42640</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>7620</v>
+      </c>
+      <c r="C57" t="s">
+        <v>549</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="J57" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="K57" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="L57" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -7077,56 +7652,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="X57" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="Y57" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>42640</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146757</v>
+      </c>
+      <c r="C58" t="s">
+        <v>559</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="J58" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="K58" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="L58" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="O58" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -7138,56 +7717,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="X58" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="Y58" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>42640</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>35807</v>
+      </c>
+      <c r="C59" t="s">
+        <v>565</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="J59" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="K59" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="L59" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="O59" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -7205,50 +7788,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>42640</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146758</v>
+      </c>
+      <c r="C60" t="s">
+        <v>572</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="J60" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="K60" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="L60" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="O60" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -7268,50 +7855,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>42640</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>3553</v>
+      </c>
+      <c r="C61" t="s">
+        <v>580</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="J61" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="K61" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="L61" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="O61" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -7331,50 +7922,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>42640</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146759</v>
+      </c>
+      <c r="C62" t="s">
+        <v>587</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="J62" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="K62" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="L62" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -7394,50 +7989,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>42640</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146760</v>
+      </c>
+      <c r="C63" t="s">
+        <v>593</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="J63" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="K63" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="L63" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="O63" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7449,56 +8048,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="X63" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="Y63" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>42640</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146761</v>
+      </c>
+      <c r="C64" t="s">
+        <v>602</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="J64" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="K64" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="L64" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7516,56 +8119,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="X64" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="Y64" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>42640</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146762</v>
+      </c>
+      <c r="C65" t="s">
+        <v>611</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="J65" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="K65" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="L65" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7583,56 +8190,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="X65" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="Y65" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>42640</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146763</v>
+      </c>
+      <c r="C66" t="s">
+        <v>621</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="J66" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="K66" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="L66" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="O66" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7646,50 +8257,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>42640</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146764</v>
+      </c>
+      <c r="C67" t="s">
+        <v>627</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="J67" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="K67" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="L67" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="O67" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -7707,56 +8322,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="X67" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="Y67" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>42640</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146765</v>
+      </c>
+      <c r="C68" t="s">
+        <v>636</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>571</v>
+        <v>637</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="J68" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="K68" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="L68" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="O68" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7774,50 +8393,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>42640</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146766</v>
+      </c>
+      <c r="C69" t="s">
+        <v>643</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="J69" t="s">
-        <v>579</v>
+        <v>646</v>
       </c>
       <c r="K69" t="s">
-        <v>580</v>
+        <v>647</v>
       </c>
       <c r="L69" t="s">
-        <v>581</v>
+        <v>648</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="O69" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7837,50 +8460,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>42640</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146767</v>
+      </c>
+      <c r="C70" t="s">
+        <v>650</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="J70" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="K70" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="L70" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="O70" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -7900,50 +8527,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>42640</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146768</v>
+      </c>
+      <c r="C71" t="s">
+        <v>658</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="J71" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="K71" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="L71" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="O71" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="n">
@@ -7961,47 +8592,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="X71" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="Y71" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>42640</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>13953</v>
+      </c>
+      <c r="C72" t="s">
+        <v>668</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="J72" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="K72" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="L72" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
@@ -8030,50 +8665,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>42640</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>13299</v>
+      </c>
+      <c r="C73" t="s">
+        <v>675</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>606</v>
+        <v>677</v>
       </c>
       <c r="J73" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="K73" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="L73" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="O73" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -8091,56 +8730,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="X73" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="Y73" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>42640</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146769</v>
+      </c>
+      <c r="C74" t="s">
+        <v>685</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="J74" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="K74" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="L74" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="O74" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -8156,56 +8799,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="X74" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="Y74" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>42640</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146770</v>
+      </c>
+      <c r="C75" t="s">
+        <v>695</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="J75" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="K75" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="L75" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="O75" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="n">
@@ -8223,56 +8870,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="X75" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="Y75" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>42640</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146771</v>
+      </c>
+      <c r="C76" t="s">
+        <v>704</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="J76" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="K76" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="L76" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="n">
@@ -8292,50 +8943,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>42640</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146772</v>
+      </c>
+      <c r="C77" t="s">
+        <v>711</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="J77" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="K77" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
       <c r="L77" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="O77" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -8359,50 +9014,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>42640</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146773</v>
+      </c>
+      <c r="C78" t="s">
+        <v>717</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="J78" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="K78" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="L78" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="O78" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8426,50 +9085,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>42640</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146774</v>
+      </c>
+      <c r="C79" t="s">
+        <v>724</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="J79" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="K79" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="L79" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="O79" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8493,50 +9156,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>42640</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>23029</v>
+      </c>
+      <c r="C80" t="s">
+        <v>730</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>653</v>
+        <v>731</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>654</v>
+        <v>732</v>
       </c>
       <c r="J80" t="s">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="K80" t="s">
-        <v>656</v>
+        <v>734</v>
       </c>
       <c r="L80" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>658</v>
+        <v>736</v>
       </c>
       <c r="O80" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8558,56 +9225,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="X80" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="Y80" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>42640</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>2657</v>
+      </c>
+      <c r="C81" t="s">
+        <v>740</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="J81" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="K81" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="L81" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8629,56 +9300,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="X81" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
       <c r="Y81" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>42640</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>146775</v>
+      </c>
+      <c r="C82" t="s">
+        <v>750</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="J82" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="K82" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
       <c r="L82" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>658</v>
+        <v>736</v>
       </c>
       <c r="O82" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -8700,56 +9375,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
       <c r="X82" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="Y82" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>42640</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>44690</v>
+      </c>
+      <c r="C83" t="s">
+        <v>759</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>680</v>
+        <v>761</v>
       </c>
       <c r="J83" t="s">
-        <v>681</v>
+        <v>762</v>
       </c>
       <c r="K83" t="s">
-        <v>682</v>
+        <v>763</v>
       </c>
       <c r="L83" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8773,41 +9452,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>42640</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146776</v>
+      </c>
+      <c r="C84" t="s">
+        <v>767</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="J84" t="s">
-        <v>681</v>
+        <v>762</v>
       </c>
       <c r="K84" t="s">
-        <v>688</v>
+        <v>770</v>
       </c>
       <c r="L84" t="s">
-        <v>689</v>
+        <v>771</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
@@ -8836,50 +9519,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>689</v>
+        <v>771</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>42640</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>6545</v>
+      </c>
+      <c r="C85" t="s">
+        <v>772</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>690</v>
+        <v>773</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>691</v>
+        <v>774</v>
       </c>
       <c r="J85" t="s">
-        <v>692</v>
+        <v>775</v>
       </c>
       <c r="K85" t="s">
-        <v>693</v>
+        <v>776</v>
       </c>
       <c r="L85" t="s">
-        <v>694</v>
+        <v>777</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="O85" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8903,50 +9590,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>42640</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>146777</v>
+      </c>
+      <c r="C86" t="s">
+        <v>779</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="J86" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="K86" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="L86" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="O86" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8970,41 +9661,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>42640</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>146778</v>
+      </c>
+      <c r="C87" t="s">
+        <v>787</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="J87" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="K87" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="L87" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
@@ -9033,50 +9728,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>42640</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>146779</v>
+      </c>
+      <c r="C88" t="s">
+        <v>792</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>707</v>
+        <v>793</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="J88" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="K88" t="s">
-        <v>710</v>
+        <v>796</v>
       </c>
       <c r="L88" t="s">
-        <v>711</v>
+        <v>797</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="O88" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -9100,50 +9799,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>713</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>42640</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>12361</v>
+      </c>
+      <c r="C89" t="s">
+        <v>800</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>714</v>
+        <v>801</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>715</v>
+        <v>802</v>
       </c>
       <c r="J89" t="s">
-        <v>716</v>
+        <v>803</v>
       </c>
       <c r="K89" t="s">
-        <v>717</v>
+        <v>804</v>
       </c>
       <c r="L89" t="s">
-        <v>718</v>
+        <v>805</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="O89" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -9167,50 +9870,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>719</v>
+        <v>806</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>42640</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>104020</v>
+      </c>
+      <c r="C90" t="s">
+        <v>807</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>721</v>
+        <v>809</v>
       </c>
       <c r="J90" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
       <c r="K90" t="s">
-        <v>723</v>
+        <v>811</v>
       </c>
       <c r="L90" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="O90" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -9232,56 +9939,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>726</v>
+        <v>814</v>
       </c>
       <c r="X90" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
       <c r="Y90" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>42640</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>146780</v>
+      </c>
+      <c r="C91" t="s">
+        <v>817</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="J91" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="K91" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
       <c r="L91" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9303,56 +10014,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>726</v>
+        <v>814</v>
       </c>
       <c r="X91" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
       <c r="Y91" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>42640</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>146781</v>
+      </c>
+      <c r="C92" t="s">
+        <v>824</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="J92" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="K92" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="L92" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="O92" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -9376,50 +10091,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>42640</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>146782</v>
+      </c>
+      <c r="C93" t="s">
+        <v>831</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>741</v>
+        <v>832</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="J93" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="K93" t="s">
-        <v>743</v>
+        <v>834</v>
       </c>
       <c r="L93" t="s">
-        <v>744</v>
+        <v>835</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="O93" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -9441,56 +10160,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
       <c r="X93" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
       <c r="Y93" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>42640</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>146783</v>
+      </c>
+      <c r="C94" t="s">
+        <v>839</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="J94" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="K94" t="s">
-        <v>750</v>
+        <v>842</v>
       </c>
       <c r="L94" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="M94" t="n">
         <v>2</v>
       </c>
       <c r="N94" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="O94" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P94" t="n">
         <v>2</v>
@@ -9512,56 +10235,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
       <c r="X94" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
       <c r="Y94" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>42640</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>146784</v>
+      </c>
+      <c r="C95" t="s">
+        <v>845</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>754</v>
+        <v>847</v>
       </c>
       <c r="J95" t="s">
-        <v>755</v>
+        <v>848</v>
       </c>
       <c r="K95" t="s">
-        <v>756</v>
+        <v>849</v>
       </c>
       <c r="L95" t="s">
-        <v>757</v>
+        <v>850</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>758</v>
+        <v>851</v>
       </c>
       <c r="O95" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -9583,56 +10310,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>759</v>
+        <v>852</v>
       </c>
       <c r="X95" t="s">
-        <v>760</v>
+        <v>853</v>
       </c>
       <c r="Y95" t="s">
-        <v>761</v>
+        <v>854</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>42640</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>146785</v>
+      </c>
+      <c r="C96" t="s">
+        <v>855</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>762</v>
+        <v>856</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>763</v>
+        <v>857</v>
       </c>
       <c r="J96" t="s">
-        <v>764</v>
+        <v>858</v>
       </c>
       <c r="K96" t="s">
-        <v>765</v>
+        <v>859</v>
       </c>
       <c r="L96" t="s">
-        <v>766</v>
+        <v>860</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9654,56 +10385,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>767</v>
+        <v>861</v>
       </c>
       <c r="X96" t="s">
-        <v>768</v>
+        <v>862</v>
       </c>
       <c r="Y96" t="s">
-        <v>769</v>
+        <v>863</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>42640</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>146786</v>
+      </c>
+      <c r="C97" t="s">
+        <v>864</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>770</v>
+        <v>865</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>771</v>
+        <v>866</v>
       </c>
       <c r="J97" t="s">
-        <v>772</v>
+        <v>867</v>
       </c>
       <c r="K97" t="s">
-        <v>773</v>
+        <v>868</v>
       </c>
       <c r="L97" t="s">
-        <v>774</v>
+        <v>869</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>758</v>
+        <v>851</v>
       </c>
       <c r="O97" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9725,56 +10460,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>775</v>
+        <v>870</v>
       </c>
       <c r="X97" t="s">
-        <v>776</v>
+        <v>871</v>
       </c>
       <c r="Y97" t="s">
-        <v>777</v>
+        <v>872</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>42640</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>22655</v>
+      </c>
+      <c r="C98" t="s">
+        <v>873</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>778</v>
+        <v>874</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="J98" t="s">
-        <v>780</v>
+        <v>876</v>
       </c>
       <c r="K98" t="s">
-        <v>781</v>
+        <v>877</v>
       </c>
       <c r="L98" t="s">
-        <v>782</v>
+        <v>878</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>758</v>
+        <v>851</v>
       </c>
       <c r="O98" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9796,56 +10535,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>783</v>
+        <v>879</v>
       </c>
       <c r="X98" t="s">
-        <v>784</v>
+        <v>880</v>
       </c>
       <c r="Y98" t="s">
-        <v>785</v>
+        <v>881</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>42640</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>146787</v>
+      </c>
+      <c r="C99" t="s">
+        <v>882</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>786</v>
+        <v>883</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>787</v>
+        <v>884</v>
       </c>
       <c r="J99" t="s">
-        <v>788</v>
+        <v>885</v>
       </c>
       <c r="K99" t="s">
-        <v>789</v>
+        <v>886</v>
       </c>
       <c r="L99" t="s">
-        <v>790</v>
+        <v>887</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>791</v>
+        <v>888</v>
       </c>
       <c r="O99" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9867,56 +10610,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>792</v>
+        <v>889</v>
       </c>
       <c r="X99" t="s">
-        <v>793</v>
+        <v>890</v>
       </c>
       <c r="Y99" t="s">
-        <v>794</v>
+        <v>891</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>42640</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>146788</v>
+      </c>
+      <c r="C100" t="s">
+        <v>892</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>795</v>
+        <v>893</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>796</v>
+        <v>894</v>
       </c>
       <c r="J100" t="s">
-        <v>797</v>
+        <v>895</v>
       </c>
       <c r="K100" t="s">
-        <v>798</v>
+        <v>896</v>
       </c>
       <c r="L100" t="s">
-        <v>799</v>
+        <v>897</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>800</v>
+        <v>898</v>
       </c>
       <c r="O100" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9938,56 +10685,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>801</v>
+        <v>899</v>
       </c>
       <c r="X100" t="s">
-        <v>802</v>
+        <v>900</v>
       </c>
       <c r="Y100" t="s">
-        <v>803</v>
+        <v>901</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>42640</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>146762</v>
+      </c>
+      <c r="C101" t="s">
+        <v>621</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>804</v>
+        <v>902</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>805</v>
+        <v>903</v>
       </c>
       <c r="J101" t="s">
-        <v>806</v>
+        <v>904</v>
       </c>
       <c r="K101" t="s">
-        <v>807</v>
+        <v>905</v>
       </c>
       <c r="L101" t="s">
-        <v>808</v>
+        <v>906</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>800</v>
+        <v>898</v>
       </c>
       <c r="O101" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -10009,56 +10760,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>809</v>
+        <v>907</v>
       </c>
       <c r="X101" t="s">
-        <v>810</v>
+        <v>908</v>
       </c>
       <c r="Y101" t="s">
-        <v>811</v>
+        <v>909</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>42640</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>146789</v>
+      </c>
+      <c r="C102" t="s">
+        <v>910</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>812</v>
+        <v>911</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>813</v>
+        <v>912</v>
       </c>
       <c r="J102" t="s">
-        <v>814</v>
+        <v>913</v>
       </c>
       <c r="K102" t="s">
-        <v>815</v>
+        <v>914</v>
       </c>
       <c r="L102" t="s">
-        <v>816</v>
+        <v>915</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>817</v>
+        <v>916</v>
       </c>
       <c r="O102" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -10080,56 +10835,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>818</v>
+        <v>917</v>
       </c>
       <c r="X102" t="s">
-        <v>819</v>
+        <v>918</v>
       </c>
       <c r="Y102" t="s">
-        <v>820</v>
+        <v>919</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>42640</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>146790</v>
+      </c>
+      <c r="C103" t="s">
+        <v>920</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>821</v>
+        <v>921</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>822</v>
+        <v>922</v>
       </c>
       <c r="J103" t="s">
-        <v>823</v>
+        <v>923</v>
       </c>
       <c r="K103" t="s">
-        <v>824</v>
+        <v>924</v>
       </c>
       <c r="L103" t="s">
-        <v>825</v>
+        <v>925</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>800</v>
+        <v>898</v>
       </c>
       <c r="O103" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -10151,56 +10910,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>826</v>
+        <v>926</v>
       </c>
       <c r="X103" t="s">
-        <v>827</v>
+        <v>927</v>
       </c>
       <c r="Y103" t="s">
-        <v>828</v>
+        <v>928</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>42640</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>146791</v>
+      </c>
+      <c r="C104" t="s">
+        <v>929</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>829</v>
+        <v>930</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>830</v>
+        <v>931</v>
       </c>
       <c r="J104" t="s">
-        <v>831</v>
+        <v>932</v>
       </c>
       <c r="K104" t="s">
-        <v>832</v>
+        <v>933</v>
       </c>
       <c r="L104" t="s">
-        <v>833</v>
+        <v>934</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>834</v>
+        <v>935</v>
       </c>
       <c r="O104" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -10222,47 +10985,51 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>835</v>
+        <v>936</v>
       </c>
       <c r="X104" t="s">
-        <v>836</v>
+        <v>937</v>
       </c>
       <c r="Y104" t="s">
-        <v>837</v>
+        <v>938</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>42640</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>146792</v>
+      </c>
+      <c r="C105" t="s">
+        <v>939</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>838</v>
+        <v>940</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>839</v>
+        <v>941</v>
       </c>
       <c r="J105" t="s">
-        <v>840</v>
+        <v>942</v>
       </c>
       <c r="K105" t="s">
-        <v>841</v>
+        <v>943</v>
       </c>
       <c r="L105" t="s">
-        <v>842</v>
+        <v>944</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
@@ -10289,47 +11056,51 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>835</v>
+        <v>936</v>
       </c>
       <c r="X105" t="s">
-        <v>836</v>
+        <v>937</v>
       </c>
       <c r="Y105" t="s">
-        <v>843</v>
+        <v>945</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>42640</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>146793</v>
+      </c>
+      <c r="C106" t="s">
+        <v>946</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>844</v>
+        <v>947</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>845</v>
+        <v>948</v>
       </c>
       <c r="J106" t="s">
-        <v>846</v>
+        <v>949</v>
       </c>
       <c r="K106" t="s">
-        <v>847</v>
+        <v>950</v>
       </c>
       <c r="L106" t="s">
-        <v>848</v>
+        <v>951</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
@@ -10356,56 +11127,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>849</v>
+        <v>952</v>
       </c>
       <c r="X106" t="s">
-        <v>850</v>
+        <v>953</v>
       </c>
       <c r="Y106" t="s">
-        <v>851</v>
+        <v>954</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>42640</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>146794</v>
+      </c>
+      <c r="C107" t="s">
+        <v>955</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>852</v>
+        <v>956</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>853</v>
+        <v>957</v>
       </c>
       <c r="J107" t="s">
-        <v>854</v>
+        <v>958</v>
       </c>
       <c r="K107" t="s">
-        <v>855</v>
+        <v>959</v>
       </c>
       <c r="L107" t="s">
-        <v>856</v>
+        <v>960</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>857</v>
+        <v>961</v>
       </c>
       <c r="O107" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10427,56 +11202,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>858</v>
+        <v>962</v>
       </c>
       <c r="X107" t="s">
-        <v>859</v>
+        <v>963</v>
       </c>
       <c r="Y107" t="s">
-        <v>860</v>
+        <v>964</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>42640</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>146778</v>
+      </c>
+      <c r="C108" t="s">
+        <v>792</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>861</v>
+        <v>965</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>862</v>
+        <v>966</v>
       </c>
       <c r="J108" t="s">
-        <v>863</v>
+        <v>967</v>
       </c>
       <c r="K108" t="s">
-        <v>864</v>
+        <v>968</v>
       </c>
       <c r="L108" t="s">
-        <v>865</v>
+        <v>969</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>857</v>
+        <v>961</v>
       </c>
       <c r="O108" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10498,56 +11277,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>866</v>
+        <v>970</v>
       </c>
       <c r="X108" t="s">
-        <v>867</v>
+        <v>971</v>
       </c>
       <c r="Y108" t="s">
-        <v>868</v>
+        <v>972</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>42640</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>146795</v>
+      </c>
+      <c r="C109" t="s">
+        <v>973</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>869</v>
+        <v>974</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>870</v>
+        <v>975</v>
       </c>
       <c r="J109" t="s">
-        <v>871</v>
+        <v>976</v>
       </c>
       <c r="K109" t="s">
-        <v>872</v>
+        <v>977</v>
       </c>
       <c r="L109" t="s">
-        <v>873</v>
+        <v>978</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
       <c r="N109" t="s">
-        <v>874</v>
+        <v>979</v>
       </c>
       <c r="O109" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P109" t="s"/>
       <c r="Q109" t="s"/>
@@ -10559,56 +11342,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>875</v>
+        <v>980</v>
       </c>
       <c r="X109" t="s">
-        <v>876</v>
+        <v>981</v>
       </c>
       <c r="Y109" t="s">
-        <v>877</v>
+        <v>982</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>42640</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>3891</v>
+      </c>
+      <c r="C110" t="s">
+        <v>983</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>878</v>
+        <v>984</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>879</v>
+        <v>985</v>
       </c>
       <c r="J110" t="s">
-        <v>880</v>
+        <v>986</v>
       </c>
       <c r="K110" t="s">
-        <v>881</v>
+        <v>987</v>
       </c>
       <c r="L110" t="s">
-        <v>882</v>
+        <v>988</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>874</v>
+        <v>979</v>
       </c>
       <c r="O110" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -10630,47 +11417,51 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>883</v>
+        <v>989</v>
       </c>
       <c r="X110" t="s">
-        <v>884</v>
+        <v>990</v>
       </c>
       <c r="Y110" t="s">
-        <v>885</v>
+        <v>991</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>42640</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>146796</v>
+      </c>
+      <c r="C111" t="s">
+        <v>992</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>886</v>
+        <v>993</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>887</v>
+        <v>994</v>
       </c>
       <c r="J111" t="s">
-        <v>880</v>
+        <v>986</v>
       </c>
       <c r="K111" t="s">
-        <v>888</v>
+        <v>995</v>
       </c>
       <c r="L111" t="s">
-        <v>889</v>
+        <v>996</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
@@ -10697,47 +11488,51 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>883</v>
+        <v>989</v>
       </c>
       <c r="X111" t="s">
-        <v>884</v>
+        <v>990</v>
       </c>
       <c r="Y111" t="s">
-        <v>890</v>
+        <v>997</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>42640</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>146797</v>
+      </c>
+      <c r="C112" t="s">
+        <v>998</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>891</v>
+        <v>999</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>892</v>
+        <v>1000</v>
       </c>
       <c r="J112" t="s">
-        <v>893</v>
+        <v>1001</v>
       </c>
       <c r="K112" t="s">
-        <v>894</v>
+        <v>1002</v>
       </c>
       <c r="L112" t="s">
-        <v>895</v>
+        <v>1003</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
@@ -10764,56 +11559,60 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>896</v>
+        <v>1004</v>
       </c>
       <c r="X112" t="s">
-        <v>897</v>
+        <v>1005</v>
       </c>
       <c r="Y112" t="s">
-        <v>898</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>42640</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>23117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1007</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>899</v>
+        <v>1008</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>900</v>
+        <v>1009</v>
       </c>
       <c r="J113" t="s">
-        <v>901</v>
+        <v>1010</v>
       </c>
       <c r="K113" t="s">
-        <v>902</v>
+        <v>1011</v>
       </c>
       <c r="L113" t="s">
-        <v>903</v>
+        <v>1012</v>
       </c>
       <c r="M113" t="n">
         <v>5</v>
       </c>
       <c r="N113" t="s">
-        <v>904</v>
+        <v>1013</v>
       </c>
       <c r="O113" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -10835,56 +11634,60 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>905</v>
+        <v>1014</v>
       </c>
       <c r="X113" t="s">
-        <v>906</v>
+        <v>1015</v>
       </c>
       <c r="Y113" t="s">
-        <v>907</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>42640</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>146798</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1017</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>908</v>
+        <v>1018</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>909</v>
+        <v>1019</v>
       </c>
       <c r="J114" t="s">
-        <v>910</v>
+        <v>1020</v>
       </c>
       <c r="K114" t="s">
-        <v>911</v>
+        <v>1021</v>
       </c>
       <c r="L114" t="s">
-        <v>912</v>
+        <v>1022</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>904</v>
+        <v>1013</v>
       </c>
       <c r="O114" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P114" t="s"/>
       <c r="Q114" t="s"/>
@@ -10896,56 +11699,60 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>913</v>
+        <v>1023</v>
       </c>
       <c r="X114" t="s">
-        <v>914</v>
+        <v>1024</v>
       </c>
       <c r="Y114" t="s">
-        <v>915</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>42640</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>146799</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1026</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>916</v>
+        <v>1027</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>917</v>
+        <v>1028</v>
       </c>
       <c r="J115" t="s">
-        <v>910</v>
+        <v>1020</v>
       </c>
       <c r="K115" t="s">
-        <v>918</v>
+        <v>1029</v>
       </c>
       <c r="L115" t="s">
-        <v>919</v>
+        <v>1030</v>
       </c>
       <c r="M115" t="n">
         <v>5</v>
       </c>
       <c r="N115" t="s">
-        <v>904</v>
+        <v>1013</v>
       </c>
       <c r="O115" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P115" t="n">
         <v>5</v>
@@ -10967,56 +11774,60 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>920</v>
+        <v>1031</v>
       </c>
       <c r="X115" t="s">
-        <v>921</v>
+        <v>1032</v>
       </c>
       <c r="Y115" t="s">
-        <v>922</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>42640</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>146800</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1034</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>923</v>
+        <v>1035</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>924</v>
+        <v>1036</v>
       </c>
       <c r="J116" t="s">
-        <v>925</v>
+        <v>1037</v>
       </c>
       <c r="K116" t="s">
-        <v>926</v>
+        <v>1038</v>
       </c>
       <c r="L116" t="s">
-        <v>927</v>
+        <v>1039</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>928</v>
+        <v>1040</v>
       </c>
       <c r="O116" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -11038,56 +11849,60 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>929</v>
+        <v>1041</v>
       </c>
       <c r="X116" t="s">
-        <v>930</v>
+        <v>1042</v>
       </c>
       <c r="Y116" t="s">
-        <v>931</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>42640</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>8526</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1044</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>932</v>
+        <v>1045</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>933</v>
+        <v>1046</v>
       </c>
       <c r="J117" t="s">
-        <v>934</v>
+        <v>1047</v>
       </c>
       <c r="K117" t="s">
-        <v>935</v>
+        <v>1048</v>
       </c>
       <c r="L117" t="s">
-        <v>936</v>
+        <v>1049</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>937</v>
+        <v>1050</v>
       </c>
       <c r="O117" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P117" t="n">
         <v>5</v>
@@ -11109,56 +11924,60 @@
         <v>0</v>
       </c>
       <c r="W117" t="s">
-        <v>929</v>
+        <v>1041</v>
       </c>
       <c r="X117" t="s">
-        <v>930</v>
+        <v>1042</v>
       </c>
       <c r="Y117" t="s">
-        <v>938</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>42640</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>1579</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1052</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>939</v>
+        <v>1053</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>940</v>
+        <v>1054</v>
       </c>
       <c r="J118" t="s">
-        <v>941</v>
+        <v>1055</v>
       </c>
       <c r="K118" t="s">
-        <v>942</v>
+        <v>1056</v>
       </c>
       <c r="L118" t="s">
-        <v>943</v>
+        <v>1057</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
       </c>
       <c r="N118" t="s">
-        <v>937</v>
+        <v>1050</v>
       </c>
       <c r="O118" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -11180,56 +11999,60 @@
         <v>0</v>
       </c>
       <c r="W118" t="s">
-        <v>929</v>
+        <v>1041</v>
       </c>
       <c r="X118" t="s">
-        <v>930</v>
+        <v>1042</v>
       </c>
       <c r="Y118" t="s">
-        <v>944</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>42640</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>146801</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1059</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>945</v>
+        <v>1060</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>946</v>
+        <v>1061</v>
       </c>
       <c r="J119" t="s">
-        <v>947</v>
+        <v>1062</v>
       </c>
       <c r="K119" t="s">
-        <v>948</v>
+        <v>1063</v>
       </c>
       <c r="L119" t="s">
-        <v>949</v>
+        <v>1064</v>
       </c>
       <c r="M119" t="n">
         <v>5</v>
       </c>
       <c r="N119" t="s">
-        <v>937</v>
+        <v>1050</v>
       </c>
       <c r="O119" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P119" t="n">
         <v>5</v>
@@ -11251,56 +12074,60 @@
         <v>0</v>
       </c>
       <c r="W119" t="s">
-        <v>929</v>
+        <v>1041</v>
       </c>
       <c r="X119" t="s">
-        <v>930</v>
+        <v>1042</v>
       </c>
       <c r="Y119" t="s">
-        <v>950</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>42640</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>58488</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1066</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>951</v>
+        <v>1067</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>952</v>
+        <v>1068</v>
       </c>
       <c r="J120" t="s">
-        <v>953</v>
+        <v>1069</v>
       </c>
       <c r="K120" t="s">
-        <v>954</v>
+        <v>1070</v>
       </c>
       <c r="L120" t="s">
-        <v>955</v>
+        <v>1071</v>
       </c>
       <c r="M120" t="n">
         <v>5</v>
       </c>
       <c r="N120" t="s">
-        <v>956</v>
+        <v>1072</v>
       </c>
       <c r="O120" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P120" t="n">
         <v>5</v>
@@ -11324,50 +12151,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>955</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>42640</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>1380</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1073</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>957</v>
+        <v>1074</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>958</v>
+        <v>1075</v>
       </c>
       <c r="J121" t="s">
-        <v>959</v>
+        <v>1076</v>
       </c>
       <c r="K121" t="s">
-        <v>960</v>
+        <v>1077</v>
       </c>
       <c r="L121" t="s">
-        <v>961</v>
+        <v>1078</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
       </c>
       <c r="N121" t="s">
-        <v>956</v>
+        <v>1072</v>
       </c>
       <c r="O121" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P121" t="n">
         <v>5</v>
@@ -11391,7 +12222,7 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>961</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_275.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_275.xlsx
@@ -3788,7 +3788,7 @@
         <v>42640</v>
       </c>
       <c r="B2" t="n">
-        <v>146715</v>
+        <v>178064</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3918,7 +3918,7 @@
         <v>42640</v>
       </c>
       <c r="B4" t="n">
-        <v>146716</v>
+        <v>178065</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -3983,7 +3983,7 @@
         <v>42640</v>
       </c>
       <c r="B5" t="n">
-        <v>146717</v>
+        <v>178066</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -4048,7 +4048,7 @@
         <v>42640</v>
       </c>
       <c r="B6" t="n">
-        <v>146718</v>
+        <v>178067</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -4113,7 +4113,7 @@
         <v>42640</v>
       </c>
       <c r="B7" t="n">
-        <v>146719</v>
+        <v>178068</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -4188,7 +4188,7 @@
         <v>42640</v>
       </c>
       <c r="B8" t="n">
-        <v>146720</v>
+        <v>178069</v>
       </c>
       <c r="C8" t="s">
         <v>109</v>
@@ -4263,7 +4263,7 @@
         <v>42640</v>
       </c>
       <c r="B9" t="n">
-        <v>146721</v>
+        <v>178070</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
@@ -4338,7 +4338,7 @@
         <v>42640</v>
       </c>
       <c r="B10" t="n">
-        <v>146722</v>
+        <v>178071</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -4543,7 +4543,7 @@
         <v>42640</v>
       </c>
       <c r="B13" t="n">
-        <v>146723</v>
+        <v>178072</v>
       </c>
       <c r="C13" t="s">
         <v>158</v>
@@ -4614,7 +4614,7 @@
         <v>42640</v>
       </c>
       <c r="B14" t="n">
-        <v>146724</v>
+        <v>178073</v>
       </c>
       <c r="C14" t="s">
         <v>168</v>
@@ -4683,7 +4683,7 @@
         <v>42640</v>
       </c>
       <c r="B15" t="n">
-        <v>146725</v>
+        <v>146722</v>
       </c>
       <c r="C15" t="s">
         <v>178</v>
@@ -4902,7 +4902,7 @@
         <v>42640</v>
       </c>
       <c r="B18" t="n">
-        <v>146726</v>
+        <v>178074</v>
       </c>
       <c r="C18" t="s">
         <v>206</v>
@@ -5046,7 +5046,7 @@
         <v>42640</v>
       </c>
       <c r="B20" t="n">
-        <v>146727</v>
+        <v>178075</v>
       </c>
       <c r="C20" t="s">
         <v>225</v>
@@ -5121,7 +5121,7 @@
         <v>42640</v>
       </c>
       <c r="B21" t="n">
-        <v>146728</v>
+        <v>178076</v>
       </c>
       <c r="C21" t="s">
         <v>234</v>
@@ -5196,7 +5196,7 @@
         <v>42640</v>
       </c>
       <c r="B22" t="n">
-        <v>146729</v>
+        <v>178077</v>
       </c>
       <c r="C22" t="s">
         <v>243</v>
@@ -5271,7 +5271,7 @@
         <v>42640</v>
       </c>
       <c r="B23" t="n">
-        <v>146730</v>
+        <v>178078</v>
       </c>
       <c r="C23" t="s">
         <v>252</v>
@@ -5346,7 +5346,7 @@
         <v>42640</v>
       </c>
       <c r="B24" t="n">
-        <v>146731</v>
+        <v>178079</v>
       </c>
       <c r="C24" t="s">
         <v>262</v>
@@ -5421,7 +5421,7 @@
         <v>42640</v>
       </c>
       <c r="B25" t="n">
-        <v>146732</v>
+        <v>178080</v>
       </c>
       <c r="C25" t="s">
         <v>271</v>
@@ -5496,7 +5496,7 @@
         <v>42640</v>
       </c>
       <c r="B26" t="n">
-        <v>146733</v>
+        <v>178081</v>
       </c>
       <c r="C26" t="s">
         <v>277</v>
@@ -5646,7 +5646,7 @@
         <v>42640</v>
       </c>
       <c r="B28" t="n">
-        <v>146734</v>
+        <v>178082</v>
       </c>
       <c r="C28" t="s">
         <v>295</v>
@@ -5721,7 +5721,7 @@
         <v>42640</v>
       </c>
       <c r="B29" t="n">
-        <v>146735</v>
+        <v>178083</v>
       </c>
       <c r="C29" t="s">
         <v>304</v>
@@ -5796,7 +5796,7 @@
         <v>42640</v>
       </c>
       <c r="B30" t="n">
-        <v>146736</v>
+        <v>178084</v>
       </c>
       <c r="C30" t="s">
         <v>313</v>
@@ -5871,7 +5871,7 @@
         <v>42640</v>
       </c>
       <c r="B31" t="n">
-        <v>146737</v>
+        <v>178085</v>
       </c>
       <c r="C31" t="s">
         <v>319</v>
@@ -5946,7 +5946,7 @@
         <v>42640</v>
       </c>
       <c r="B32" t="n">
-        <v>146738</v>
+        <v>178086</v>
       </c>
       <c r="C32" t="s">
         <v>328</v>
@@ -6011,7 +6011,7 @@
         <v>42640</v>
       </c>
       <c r="B33" t="n">
-        <v>146739</v>
+        <v>178087</v>
       </c>
       <c r="C33" t="s">
         <v>338</v>
@@ -6076,7 +6076,7 @@
         <v>42640</v>
       </c>
       <c r="B34" t="n">
-        <v>146740</v>
+        <v>178088</v>
       </c>
       <c r="C34" t="s">
         <v>347</v>
@@ -6147,7 +6147,7 @@
         <v>42640</v>
       </c>
       <c r="B35" t="n">
-        <v>146741</v>
+        <v>178089</v>
       </c>
       <c r="C35" t="s">
         <v>357</v>
@@ -6212,7 +6212,7 @@
         <v>42640</v>
       </c>
       <c r="B36" t="n">
-        <v>146742</v>
+        <v>178090</v>
       </c>
       <c r="C36" t="s">
         <v>367</v>
@@ -6273,7 +6273,7 @@
         <v>42640</v>
       </c>
       <c r="B37" t="n">
-        <v>146743</v>
+        <v>178091</v>
       </c>
       <c r="C37" t="s">
         <v>376</v>
@@ -6409,7 +6409,7 @@
         <v>42640</v>
       </c>
       <c r="B39" t="n">
-        <v>146744</v>
+        <v>178092</v>
       </c>
       <c r="C39" t="s">
         <v>392</v>
@@ -6478,7 +6478,7 @@
         <v>42640</v>
       </c>
       <c r="B40" t="n">
-        <v>146724</v>
+        <v>146722</v>
       </c>
       <c r="C40" t="s">
         <v>178</v>
@@ -6612,7 +6612,7 @@
         <v>42640</v>
       </c>
       <c r="B42" t="n">
-        <v>146745</v>
+        <v>178093</v>
       </c>
       <c r="C42" t="s">
         <v>418</v>
@@ -6683,7 +6683,7 @@
         <v>42640</v>
       </c>
       <c r="B43" t="n">
-        <v>146746</v>
+        <v>178094</v>
       </c>
       <c r="C43" t="s">
         <v>428</v>
@@ -6748,7 +6748,7 @@
         <v>42640</v>
       </c>
       <c r="B44" t="n">
-        <v>146747</v>
+        <v>178095</v>
       </c>
       <c r="C44" t="s">
         <v>438</v>
@@ -6888,7 +6888,7 @@
         <v>42640</v>
       </c>
       <c r="B46" t="n">
-        <v>146748</v>
+        <v>178096</v>
       </c>
       <c r="C46" t="s">
         <v>458</v>
@@ -6953,7 +6953,7 @@
         <v>42640</v>
       </c>
       <c r="B47" t="n">
-        <v>146749</v>
+        <v>178097</v>
       </c>
       <c r="C47" t="s">
         <v>467</v>
@@ -7018,7 +7018,7 @@
         <v>42640</v>
       </c>
       <c r="B48" t="n">
-        <v>146750</v>
+        <v>178098</v>
       </c>
       <c r="C48" t="s">
         <v>477</v>
@@ -7083,7 +7083,7 @@
         <v>42640</v>
       </c>
       <c r="B49" t="n">
-        <v>146751</v>
+        <v>178099</v>
       </c>
       <c r="C49" t="s">
         <v>487</v>
@@ -7152,7 +7152,7 @@
         <v>42640</v>
       </c>
       <c r="B50" t="n">
-        <v>146752</v>
+        <v>178100</v>
       </c>
       <c r="C50" t="s">
         <v>496</v>
@@ -7282,7 +7282,7 @@
         <v>42640</v>
       </c>
       <c r="B52" t="n">
-        <v>146753</v>
+        <v>178101</v>
       </c>
       <c r="C52" t="s">
         <v>514</v>
@@ -7347,7 +7347,7 @@
         <v>42640</v>
       </c>
       <c r="B53" t="n">
-        <v>146754</v>
+        <v>178102</v>
       </c>
       <c r="C53" t="s">
         <v>523</v>
@@ -7414,7 +7414,7 @@
         <v>42640</v>
       </c>
       <c r="B54" t="n">
-        <v>146755</v>
+        <v>178103</v>
       </c>
       <c r="C54" t="s">
         <v>529</v>
@@ -7540,7 +7540,7 @@
         <v>42640</v>
       </c>
       <c r="B56" t="n">
-        <v>146756</v>
+        <v>178104</v>
       </c>
       <c r="C56" t="s">
         <v>543</v>
@@ -7666,7 +7666,7 @@
         <v>42640</v>
       </c>
       <c r="B58" t="n">
-        <v>146757</v>
+        <v>178105</v>
       </c>
       <c r="C58" t="s">
         <v>559</v>
@@ -7796,7 +7796,7 @@
         <v>42640</v>
       </c>
       <c r="B60" t="n">
-        <v>146758</v>
+        <v>178106</v>
       </c>
       <c r="C60" t="s">
         <v>572</v>
@@ -7930,7 +7930,7 @@
         <v>42640</v>
       </c>
       <c r="B62" t="n">
-        <v>146759</v>
+        <v>178107</v>
       </c>
       <c r="C62" t="s">
         <v>587</v>
@@ -7997,7 +7997,7 @@
         <v>42640</v>
       </c>
       <c r="B63" t="n">
-        <v>146760</v>
+        <v>178108</v>
       </c>
       <c r="C63" t="s">
         <v>593</v>
@@ -8062,7 +8062,7 @@
         <v>42640</v>
       </c>
       <c r="B64" t="n">
-        <v>146761</v>
+        <v>178109</v>
       </c>
       <c r="C64" t="s">
         <v>602</v>
@@ -8133,7 +8133,7 @@
         <v>42640</v>
       </c>
       <c r="B65" t="n">
-        <v>146762</v>
+        <v>178110</v>
       </c>
       <c r="C65" t="s">
         <v>611</v>
@@ -8204,7 +8204,7 @@
         <v>42640</v>
       </c>
       <c r="B66" t="n">
-        <v>146763</v>
+        <v>146739</v>
       </c>
       <c r="C66" t="s">
         <v>621</v>
@@ -8265,7 +8265,7 @@
         <v>42640</v>
       </c>
       <c r="B67" t="n">
-        <v>146764</v>
+        <v>178111</v>
       </c>
       <c r="C67" t="s">
         <v>627</v>
@@ -8336,7 +8336,7 @@
         <v>42640</v>
       </c>
       <c r="B68" t="n">
-        <v>146765</v>
+        <v>178112</v>
       </c>
       <c r="C68" t="s">
         <v>636</v>
@@ -8401,7 +8401,7 @@
         <v>42640</v>
       </c>
       <c r="B69" t="n">
-        <v>146766</v>
+        <v>178113</v>
       </c>
       <c r="C69" t="s">
         <v>643</v>
@@ -8468,7 +8468,7 @@
         <v>42640</v>
       </c>
       <c r="B70" t="n">
-        <v>146767</v>
+        <v>178114</v>
       </c>
       <c r="C70" t="s">
         <v>650</v>
@@ -8535,7 +8535,7 @@
         <v>42640</v>
       </c>
       <c r="B71" t="n">
-        <v>146768</v>
+        <v>178115</v>
       </c>
       <c r="C71" t="s">
         <v>658</v>
@@ -8744,7 +8744,7 @@
         <v>42640</v>
       </c>
       <c r="B74" t="n">
-        <v>146769</v>
+        <v>178116</v>
       </c>
       <c r="C74" t="s">
         <v>685</v>
@@ -8813,7 +8813,7 @@
         <v>42640</v>
       </c>
       <c r="B75" t="n">
-        <v>146770</v>
+        <v>178117</v>
       </c>
       <c r="C75" t="s">
         <v>695</v>
@@ -8884,7 +8884,7 @@
         <v>42640</v>
       </c>
       <c r="B76" t="n">
-        <v>146771</v>
+        <v>178118</v>
       </c>
       <c r="C76" t="s">
         <v>704</v>
@@ -8951,7 +8951,7 @@
         <v>42640</v>
       </c>
       <c r="B77" t="n">
-        <v>146772</v>
+        <v>178119</v>
       </c>
       <c r="C77" t="s">
         <v>711</v>
@@ -9022,7 +9022,7 @@
         <v>42640</v>
       </c>
       <c r="B78" t="n">
-        <v>146773</v>
+        <v>178120</v>
       </c>
       <c r="C78" t="s">
         <v>717</v>
@@ -9093,7 +9093,7 @@
         <v>42640</v>
       </c>
       <c r="B79" t="n">
-        <v>146774</v>
+        <v>178121</v>
       </c>
       <c r="C79" t="s">
         <v>724</v>
@@ -9314,7 +9314,7 @@
         <v>42640</v>
       </c>
       <c r="B82" t="n">
-        <v>146775</v>
+        <v>178122</v>
       </c>
       <c r="C82" t="s">
         <v>750</v>
@@ -9460,7 +9460,7 @@
         <v>42640</v>
       </c>
       <c r="B84" t="n">
-        <v>146776</v>
+        <v>178123</v>
       </c>
       <c r="C84" t="s">
         <v>767</v>
@@ -9598,7 +9598,7 @@
         <v>42640</v>
       </c>
       <c r="B86" t="n">
-        <v>146777</v>
+        <v>178124</v>
       </c>
       <c r="C86" t="s">
         <v>779</v>
@@ -9669,7 +9669,7 @@
         <v>42640</v>
       </c>
       <c r="B87" t="n">
-        <v>146778</v>
+        <v>178125</v>
       </c>
       <c r="C87" t="s">
         <v>787</v>
@@ -9736,7 +9736,7 @@
         <v>42640</v>
       </c>
       <c r="B88" t="n">
-        <v>146779</v>
+        <v>146740</v>
       </c>
       <c r="C88" t="s">
         <v>792</v>
@@ -9953,7 +9953,7 @@
         <v>42640</v>
       </c>
       <c r="B91" t="n">
-        <v>146780</v>
+        <v>178126</v>
       </c>
       <c r="C91" t="s">
         <v>817</v>
@@ -10028,7 +10028,7 @@
         <v>42640</v>
       </c>
       <c r="B92" t="n">
-        <v>146781</v>
+        <v>178127</v>
       </c>
       <c r="C92" t="s">
         <v>824</v>
@@ -10099,7 +10099,7 @@
         <v>42640</v>
       </c>
       <c r="B93" t="n">
-        <v>146782</v>
+        <v>178128</v>
       </c>
       <c r="C93" t="s">
         <v>831</v>
@@ -10174,7 +10174,7 @@
         <v>42640</v>
       </c>
       <c r="B94" t="n">
-        <v>146783</v>
+        <v>178129</v>
       </c>
       <c r="C94" t="s">
         <v>839</v>
@@ -10249,7 +10249,7 @@
         <v>42640</v>
       </c>
       <c r="B95" t="n">
-        <v>146784</v>
+        <v>178130</v>
       </c>
       <c r="C95" t="s">
         <v>845</v>
@@ -10324,7 +10324,7 @@
         <v>42640</v>
       </c>
       <c r="B96" t="n">
-        <v>146785</v>
+        <v>178131</v>
       </c>
       <c r="C96" t="s">
         <v>855</v>
@@ -10399,7 +10399,7 @@
         <v>42640</v>
       </c>
       <c r="B97" t="n">
-        <v>146786</v>
+        <v>178132</v>
       </c>
       <c r="C97" t="s">
         <v>864</v>
@@ -10549,7 +10549,7 @@
         <v>42640</v>
       </c>
       <c r="B99" t="n">
-        <v>146787</v>
+        <v>178133</v>
       </c>
       <c r="C99" t="s">
         <v>882</v>
@@ -10624,7 +10624,7 @@
         <v>42640</v>
       </c>
       <c r="B100" t="n">
-        <v>146788</v>
+        <v>178134</v>
       </c>
       <c r="C100" t="s">
         <v>892</v>
@@ -10699,7 +10699,7 @@
         <v>42640</v>
       </c>
       <c r="B101" t="n">
-        <v>146762</v>
+        <v>146739</v>
       </c>
       <c r="C101" t="s">
         <v>621</v>
@@ -10774,7 +10774,7 @@
         <v>42640</v>
       </c>
       <c r="B102" t="n">
-        <v>146789</v>
+        <v>178135</v>
       </c>
       <c r="C102" t="s">
         <v>910</v>
@@ -10849,7 +10849,7 @@
         <v>42640</v>
       </c>
       <c r="B103" t="n">
-        <v>146790</v>
+        <v>178136</v>
       </c>
       <c r="C103" t="s">
         <v>920</v>
@@ -10924,7 +10924,7 @@
         <v>42640</v>
       </c>
       <c r="B104" t="n">
-        <v>146791</v>
+        <v>178137</v>
       </c>
       <c r="C104" t="s">
         <v>929</v>
@@ -10999,7 +10999,7 @@
         <v>42640</v>
       </c>
       <c r="B105" t="n">
-        <v>146792</v>
+        <v>178138</v>
       </c>
       <c r="C105" t="s">
         <v>939</v>
@@ -11070,7 +11070,7 @@
         <v>42640</v>
       </c>
       <c r="B106" t="n">
-        <v>146793</v>
+        <v>178139</v>
       </c>
       <c r="C106" t="s">
         <v>946</v>
@@ -11141,7 +11141,7 @@
         <v>42640</v>
       </c>
       <c r="B107" t="n">
-        <v>146794</v>
+        <v>178140</v>
       </c>
       <c r="C107" t="s">
         <v>955</v>
@@ -11216,7 +11216,7 @@
         <v>42640</v>
       </c>
       <c r="B108" t="n">
-        <v>146778</v>
+        <v>146740</v>
       </c>
       <c r="C108" t="s">
         <v>792</v>
@@ -11291,7 +11291,7 @@
         <v>42640</v>
       </c>
       <c r="B109" t="n">
-        <v>146795</v>
+        <v>178141</v>
       </c>
       <c r="C109" t="s">
         <v>973</v>
@@ -11431,7 +11431,7 @@
         <v>42640</v>
       </c>
       <c r="B111" t="n">
-        <v>146796</v>
+        <v>178142</v>
       </c>
       <c r="C111" t="s">
         <v>992</v>
@@ -11502,7 +11502,7 @@
         <v>42640</v>
       </c>
       <c r="B112" t="n">
-        <v>146797</v>
+        <v>178143</v>
       </c>
       <c r="C112" t="s">
         <v>998</v>
@@ -11648,7 +11648,7 @@
         <v>42640</v>
       </c>
       <c r="B114" t="n">
-        <v>146798</v>
+        <v>178144</v>
       </c>
       <c r="C114" t="s">
         <v>1017</v>
@@ -11713,7 +11713,7 @@
         <v>42640</v>
       </c>
       <c r="B115" t="n">
-        <v>146799</v>
+        <v>178145</v>
       </c>
       <c r="C115" t="s">
         <v>1026</v>
@@ -11788,7 +11788,7 @@
         <v>42640</v>
       </c>
       <c r="B116" t="n">
-        <v>146800</v>
+        <v>178146</v>
       </c>
       <c r="C116" t="s">
         <v>1034</v>
@@ -12013,7 +12013,7 @@
         <v>42640</v>
       </c>
       <c r="B119" t="n">
-        <v>146801</v>
+        <v>178147</v>
       </c>
       <c r="C119" t="s">
         <v>1059</v>
